--- a/results/LSTMAttentionModel/NVDA.O_pre.xlsx
+++ b/results/LSTMAttentionModel/NVDA.O_pre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB79"/>
+  <dimension ref="A1:AB78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>总资产收益率(单季)</t>
+          <t>毛利率(TTM)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>毛利率(TTM)</t>
+          <t>净利率(单季)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -476,22 +476,22 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>总资产收益率(单季)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>总资产收益率(TTM)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>资产负债率</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>总资产周转率</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>净利率(单季)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -592,31 +592,31 @@
         <v>42.35169982910156</v>
       </c>
       <c r="F2" t="n">
-        <v>4.448400020599365</v>
+        <v>39.96680068969727</v>
       </c>
       <c r="G2" t="n">
-        <v>39.96680068969727</v>
+        <v>13.29940032958984</v>
       </c>
       <c r="H2" t="n">
         <v>13.23579978942871</v>
       </c>
       <c r="I2" t="n">
+        <v>4.448400020599365</v>
+      </c>
+      <c r="J2" t="n">
         <v>15.1476001739502</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>25.57550048828125</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.3345000147819519</v>
       </c>
-      <c r="L2" t="n">
-        <v>13.29940032958984</v>
-      </c>
       <c r="M2" t="n">
-        <v>0.3511826395988464</v>
+        <v>0.3512024581432343</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3511062264442444</v>
+        <v>0.4219614565372467</v>
       </c>
       <c r="O2" t="n">
         <v>36.10223770141602</v>
@@ -635,10 +635,10 @@
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>-6.070187091827393</v>
+        <v>-1.145423531532288</v>
       </c>
       <c r="V2" t="n">
-        <v>1.82158088684082</v>
+        <v>0.8781687617301941</v>
       </c>
       <c r="W2" t="n">
         <v>29.85402488708496</v>
@@ -653,10 +653,10 @@
         <v>23.60055732727051</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.3958834111690521</v>
+        <v>0.4016829431056976</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.3987625241279602</v>
+        <v>0.0292598232626915</v>
       </c>
     </row>
     <row r="3">
@@ -676,31 +676,31 @@
         <v>42.49020004272461</v>
       </c>
       <c r="F3" t="n">
-        <v>3.993000030517578</v>
+        <v>41.10599899291992</v>
       </c>
       <c r="G3" t="n">
-        <v>41.10599899291992</v>
+        <v>12.61830043792725</v>
       </c>
       <c r="H3" t="n">
         <v>13.17339992523193</v>
       </c>
       <c r="I3" t="n">
+        <v>3.993000030517578</v>
+      </c>
+      <c r="J3" t="n">
         <v>15.60159969329834</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>24.23640060424805</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0.6680999994277954</v>
       </c>
-      <c r="L3" t="n">
-        <v>12.61830043792725</v>
-      </c>
       <c r="M3" t="n">
-        <v>0.5577966570854187</v>
+        <v>0.5578281283378601</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5537468791007996</v>
+        <v>0.4134361147880554</v>
       </c>
       <c r="O3" t="n">
         <v>87.41837310791016</v>
@@ -719,10 +719,10 @@
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>11.54060745239258</v>
+        <v>14.92557716369629</v>
       </c>
       <c r="V3" t="n">
-        <v>1.760656595230103</v>
+        <v>0.8440742492675781</v>
       </c>
       <c r="W3" t="n">
         <v>26.68168640136719</v>
@@ -737,10 +737,10 @@
         <v>15.35362434387207</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.6525927782058716</v>
+        <v>0.4666575789451599</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1543936282396317</v>
+        <v>0.1904567629098892</v>
       </c>
     </row>
     <row r="4">
@@ -760,31 +760,31 @@
         <v>40.69620132446289</v>
       </c>
       <c r="F4" t="n">
-        <v>4.51800012588501</v>
+        <v>41.39950180053711</v>
       </c>
       <c r="G4" t="n">
-        <v>41.39950180053711</v>
+        <v>12.98009967803955</v>
       </c>
       <c r="H4" t="n">
         <v>13.52820014953613</v>
       </c>
       <c r="I4" t="n">
+        <v>4.51800012588501</v>
+      </c>
+      <c r="J4" t="n">
         <v>15.09080028533936</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>27.07999992370605</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>0.9850000143051147</v>
       </c>
-      <c r="L4" t="n">
-        <v>12.98009967803955</v>
-      </c>
       <c r="M4" t="n">
-        <v>0.5451124906539917</v>
+        <v>0.5451432466506958</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5518366098403931</v>
+        <v>0.5555356740951538</v>
       </c>
       <c r="O4" t="n">
         <v>6.171809673309326</v>
@@ -803,10 +803,10 @@
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>-0.5020288825035095</v>
+        <v>1.370681166648865</v>
       </c>
       <c r="V4" t="n">
-        <v>1.845049262046814</v>
+        <v>0.8643640279769897</v>
       </c>
       <c r="W4" t="n">
         <v>26.99602317810059</v>
@@ -821,10 +821,10 @@
         <v>19.17927742004395</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.6228640675544739</v>
+        <v>0.5731243491172791</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.2942447364330292</v>
+        <v>0.1075265407562256</v>
       </c>
     </row>
     <row r="5">
@@ -842,31 +842,31 @@
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>6.280900001525879</v>
+        <v>42.37689971923828</v>
       </c>
       <c r="G5" t="n">
-        <v>42.37689971923828</v>
+        <v>18.60409927368164</v>
       </c>
       <c r="H5" t="n">
         <v>14.62590026855469</v>
       </c>
       <c r="I5" t="n">
+        <v>6.280900001525879</v>
+      </c>
+      <c r="J5" t="n">
         <v>16.77720069885254</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>24.98240089416504</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>1.337000012397766</v>
       </c>
-      <c r="L5" t="n">
-        <v>18.60409927368164</v>
-      </c>
       <c r="M5" t="n">
-        <v>0.4373736977577209</v>
+        <v>0.437398374080658</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4395895898342133</v>
+        <v>0.5114982724189758</v>
       </c>
       <c r="O5" t="n">
         <v>29.87688064575195</v>
@@ -887,10 +887,10 @@
         <v>17.55084800720215</v>
       </c>
       <c r="U5" t="n">
-        <v>-5.130839347839355</v>
+        <v>-0.7468549609184265</v>
       </c>
       <c r="V5" t="n">
-        <v>2.095236301422119</v>
+        <v>0.9147303104400635</v>
       </c>
       <c r="W5" t="n">
         <v>21.38587760925293</v>
@@ -905,10 +905,10 @@
         <v>15.94954586029053</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.4830724895000458</v>
+        <v>0.4919255375862122</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.06800467520952225</v>
+        <v>0.01757452078163624</v>
       </c>
     </row>
     <row r="6">
@@ -928,31 +928,31 @@
         <v>45.02510070800781</v>
       </c>
       <c r="F6" t="n">
-        <v>4.830399990081787</v>
+        <v>43.07410049438477</v>
       </c>
       <c r="G6" t="n">
-        <v>43.07410049438477</v>
+        <v>15.6653003692627</v>
       </c>
       <c r="H6" t="n">
         <v>15.17730045318604</v>
       </c>
       <c r="I6" t="n">
+        <v>4.830399990081787</v>
+      </c>
+      <c r="J6" t="n">
         <v>17.50950050354004</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>25.1697998046875</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>0.3082999885082245</v>
       </c>
-      <c r="L6" t="n">
-        <v>15.6653003692627</v>
-      </c>
       <c r="M6" t="n">
-        <v>0.5064488053321838</v>
+        <v>0.5064773559570312</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5159236788749695</v>
+        <v>0.4832801818847656</v>
       </c>
       <c r="O6" t="n">
         <v>27.15323448181152</v>
@@ -971,10 +971,10 @@
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>11.71590805053711</v>
+        <v>8.729180335998535</v>
       </c>
       <c r="V6" t="n">
-        <v>2.228246688842773</v>
+        <v>0.9527587294578552</v>
       </c>
       <c r="W6" t="n">
         <v>21.06716537475586</v>
@@ -989,10 +989,10 @@
         <v>20.6963005065918</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.5538642406463623</v>
+        <v>0.532534122467041</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.3208184242248535</v>
+        <v>0.2019999027252197</v>
       </c>
     </row>
     <row r="7">
@@ -1012,31 +1012,31 @@
         <v>45.33449935913086</v>
       </c>
       <c r="F7" t="n">
-        <v>5.918399810791016</v>
+        <v>43.79959869384766</v>
       </c>
       <c r="G7" t="n">
-        <v>43.79959869384766</v>
+        <v>18.4689998626709</v>
       </c>
       <c r="H7" t="n">
         <v>16.52809906005859</v>
       </c>
       <c r="I7" t="n">
+        <v>5.918399810791016</v>
+      </c>
+      <c r="J7" t="n">
         <v>18.9379997253418</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>25.55730056762695</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>0.6230999827384949</v>
       </c>
-      <c r="L7" t="n">
-        <v>18.4689998626709</v>
-      </c>
       <c r="M7" t="n">
-        <v>0.7398064136505127</v>
+        <v>0.7398481965065002</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7315540909767151</v>
+        <v>0.6401059627532959</v>
       </c>
       <c r="O7" t="n">
         <v>45.63699722290039</v>
@@ -1057,10 +1057,10 @@
         <v>15.30441856384277</v>
       </c>
       <c r="U7" t="n">
-        <v>5.936516761779785</v>
+        <v>-0.917807400226593</v>
       </c>
       <c r="V7" t="n">
-        <v>2.200783014297485</v>
+        <v>1.140561461448669</v>
       </c>
       <c r="W7" t="n">
         <v>20.88043212890625</v>
@@ -1075,10 +1075,10 @@
         <v>24.7513484954834</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.8416057825088501</v>
+        <v>0.7380378842353821</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1864189803600311</v>
+        <v>0.07903606444597244</v>
       </c>
     </row>
     <row r="8">
@@ -1098,31 +1098,31 @@
         <v>46.21319961547852</v>
       </c>
       <c r="F8" t="n">
-        <v>7.23829984664917</v>
+        <v>45.18780136108398</v>
       </c>
       <c r="G8" t="n">
-        <v>45.18780136108398</v>
+        <v>21.12420082092285</v>
       </c>
       <c r="H8" t="n">
         <v>18.65810012817383</v>
       </c>
       <c r="I8" t="n">
+        <v>7.23829984664917</v>
+      </c>
+      <c r="J8" t="n">
         <v>20.26199913024902</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>28.69820022583008</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>0.9413999915122986</v>
       </c>
-      <c r="L8" t="n">
-        <v>21.12420082092285</v>
-      </c>
       <c r="M8" t="n">
-        <v>0.6810467839241028</v>
+        <v>0.6810851693153381</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6847144961357117</v>
+        <v>0.7963694930076599</v>
       </c>
       <c r="O8" t="n">
         <v>33.46714401245117</v>
@@ -1143,10 +1143,10 @@
         <v>13.22471237182617</v>
       </c>
       <c r="U8" t="n">
-        <v>-2.476442337036133</v>
+        <v>2.996580600738525</v>
       </c>
       <c r="V8" t="n">
-        <v>2.053515434265137</v>
+        <v>1.078244686126709</v>
       </c>
       <c r="W8" t="n">
         <v>16.86783218383789</v>
@@ -1161,10 +1161,10 @@
         <v>17.90958404541016</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.7614540457725525</v>
+        <v>0.7925623059272766</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.4554106593132019</v>
+        <v>0.2202243655920029</v>
       </c>
     </row>
     <row r="9">
@@ -1184,31 +1184,31 @@
         <v>45.69580078125</v>
       </c>
       <c r="F9" t="n">
-        <v>7.116000175476074</v>
+        <v>45.61600112915039</v>
       </c>
       <c r="G9" t="n">
-        <v>45.61600112915039</v>
+        <v>21.36750030517578</v>
       </c>
       <c r="H9" t="n">
         <v>19.46489906311035</v>
       </c>
       <c r="I9" t="n">
+        <v>7.116000175476074</v>
+      </c>
+      <c r="J9" t="n">
         <v>21.28380012512207</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>30.14559936523438</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>1.276000022888184</v>
       </c>
-      <c r="L9" t="n">
-        <v>21.36750030517578</v>
-      </c>
       <c r="M9" t="n">
-        <v>0.4245367348194122</v>
+        <v>0.4245606958866119</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4146797657012939</v>
+        <v>0.61802077293396</v>
       </c>
       <c r="O9" t="n">
         <v>63.56976318359375</v>
@@ -1229,10 +1229,10 @@
         <v>8.088959693908691</v>
       </c>
       <c r="U9" t="n">
-        <v>-14.3544340133667</v>
+        <v>-4.418040752410889</v>
       </c>
       <c r="V9" t="n">
-        <v>2.30315899848938</v>
+        <v>1.319915652275085</v>
       </c>
       <c r="W9" t="n">
         <v>17.21094131469727</v>
@@ -1247,10 +1247,10 @@
         <v>71.15265655517578</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.5013379454612732</v>
+        <v>0.5772685408592224</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.06856856495141983</v>
+        <v>0.1799841374158859</v>
       </c>
     </row>
     <row r="10">
@@ -1270,31 +1270,31 @@
         <v>44.63750076293945</v>
       </c>
       <c r="F10" t="n">
-        <v>4.680399894714355</v>
+        <v>45.47309875488281</v>
       </c>
       <c r="G10" t="n">
-        <v>45.47309875488281</v>
+        <v>15.32919979095459</v>
       </c>
       <c r="H10" t="n">
         <v>19.11039924621582</v>
       </c>
       <c r="I10" t="n">
+        <v>4.680399894714355</v>
+      </c>
+      <c r="J10" t="n">
         <v>22.11949920654297</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>28.11009979248047</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>0.3052999973297119</v>
       </c>
-      <c r="L10" t="n">
-        <v>15.32919979095459</v>
-      </c>
       <c r="M10" t="n">
-        <v>0.5421324968338013</v>
+        <v>0.542163074016571</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5357139706611633</v>
+        <v>0.4733693599700928</v>
       </c>
       <c r="O10" t="n">
         <v>41.57667541503906</v>
@@ -1313,10 +1313,10 @@
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>14.75174140930176</v>
+        <v>6.204495906829834</v>
       </c>
       <c r="V10" t="n">
-        <v>2.365284204483032</v>
+        <v>1.144836664199829</v>
       </c>
       <c r="W10" t="n">
         <v>19.67397689819336</v>
@@ -1331,10 +1331,10 @@
         <v>77.16980743408203</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.5707801580429077</v>
+        <v>0.5141337513923645</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.4437689781188965</v>
+        <v>0.2698327898979187</v>
       </c>
     </row>
     <row r="11">
@@ -1354,31 +1354,31 @@
         <v>16.79409980773926</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.113699913024902</v>
+        <v>39.63690185546875</v>
       </c>
       <c r="G11" t="n">
-        <v>39.63690185546875</v>
+        <v>-13.546799659729</v>
       </c>
       <c r="H11" t="n">
         <v>12.56830024719238</v>
       </c>
       <c r="I11" t="n">
+        <v>-3.113699913024902</v>
+      </c>
+      <c r="J11" t="n">
         <v>13.85159969329834</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>32.75550079345703</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>0.5309000015258789</v>
       </c>
-      <c r="L11" t="n">
-        <v>-13.546799659729</v>
-      </c>
       <c r="M11" t="n">
-        <v>0.3122133016586304</v>
+        <v>0.3122309148311615</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3174856305122375</v>
+        <v>0.3754036128520966</v>
       </c>
       <c r="O11" t="n">
         <v>64.09701538085938</v>
@@ -1399,10 +1399,10 @@
         <v>8.619061470031738</v>
       </c>
       <c r="U11" t="n">
-        <v>-8.735033988952637</v>
+        <v>-4.798393249511719</v>
       </c>
       <c r="V11" t="n">
-        <v>2.639951944351196</v>
+        <v>1.378294467926025</v>
       </c>
       <c r="W11" t="n">
         <v>17.67576026916504</v>
@@ -1417,10 +1417,10 @@
         <v>54.39176559448242</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.3470917046070099</v>
+        <v>0.371292918920517</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.5277889966964722</v>
+        <v>0.4311313629150391</v>
       </c>
     </row>
     <row r="12">
@@ -1440,31 +1440,31 @@
         <v>40.97819900512695</v>
       </c>
       <c r="F12" t="n">
-        <v>1.623000025749207</v>
+        <v>38.15800094604492</v>
       </c>
       <c r="G12" t="n">
-        <v>38.15800094604492</v>
+        <v>6.878799915313721</v>
       </c>
       <c r="H12" t="n">
         <v>9.034600257873535</v>
       </c>
       <c r="I12" t="n">
+        <v>1.623000025749207</v>
+      </c>
+      <c r="J12" t="n">
         <v>10.26659965515137</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>31.84040069580078</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>0.7960000038146973</v>
       </c>
-      <c r="L12" t="n">
-        <v>6.878799915313721</v>
-      </c>
       <c r="M12" t="n">
-        <v>0.1565651148557663</v>
+        <v>0.1565739512443542</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1639005243778229</v>
+        <v>0.2112168967723846</v>
       </c>
       <c r="O12" t="n">
         <v>58.1676139831543</v>
@@ -1485,10 +1485,10 @@
         <v>7.031454086303711</v>
       </c>
       <c r="U12" t="n">
-        <v>-46.01331329345703</v>
+        <v>-28.12689971923828</v>
       </c>
       <c r="V12" t="n">
-        <v>2.568459749221802</v>
+        <v>1.727746367454529</v>
       </c>
       <c r="W12" t="n">
         <v>7.285555839538574</v>
@@ -1503,10 +1503,10 @@
         <v>25.60280990600586</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.2139186263084412</v>
+        <v>0.2026876360177994</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.05282994359731674</v>
+        <v>0.07383016496896744</v>
       </c>
     </row>
     <row r="13">
@@ -1526,31 +1526,31 @@
         <v>29.44379997253418</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.219200134277344</v>
+        <v>34.28659820556641</v>
       </c>
       <c r="G13" t="n">
-        <v>34.28659820556641</v>
+        <v>-30.69070053100586</v>
       </c>
       <c r="H13" t="n">
         <v>-0.8770999908447266</v>
       </c>
       <c r="I13" t="n">
+        <v>-4.219200134277344</v>
+      </c>
+      <c r="J13" t="n">
         <v>-0.8966000080108643</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>28.53339958190918</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>0.9649999737739563</v>
       </c>
-      <c r="L13" t="n">
-        <v>-30.69070053100586</v>
-      </c>
       <c r="M13" t="n">
-        <v>0.2246468663215637</v>
+        <v>0.2246595472097397</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2252199351787567</v>
+        <v>0.1877231746912003</v>
       </c>
       <c r="O13" t="n">
         <v>68.40695953369141</v>
@@ -1571,10 +1571,10 @@
         <v>21.31875419616699</v>
       </c>
       <c r="U13" t="n">
-        <v>10.56792640686035</v>
+        <v>-10.93674182891846</v>
       </c>
       <c r="V13" t="n">
-        <v>2.233983278274536</v>
+        <v>1.675111174583435</v>
       </c>
       <c r="W13" t="n">
         <v>11.99344444274902</v>
@@ -1589,10 +1589,10 @@
         <v>23.20944786071777</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.1816461533308029</v>
+        <v>0.2123182713985443</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.2102265655994415</v>
+        <v>0.1361966878175735</v>
       </c>
     </row>
     <row r="14">
@@ -1612,31 +1612,31 @@
         <v>28.55870056152344</v>
       </c>
       <c r="F14" t="n">
-        <v>-6.167099952697754</v>
+        <v>28.92399978637695</v>
       </c>
       <c r="G14" t="n">
-        <v>28.92399978637695</v>
+        <v>-30.31139945983887</v>
       </c>
       <c r="H14" t="n">
         <v>-13.90410041809082</v>
       </c>
       <c r="I14" t="n">
+        <v>-6.167099952697754</v>
+      </c>
+      <c r="J14" t="n">
         <v>-12.84119987487793</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>27.04960060119629</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>0.2035000026226044</v>
       </c>
-      <c r="L14" t="n">
-        <v>-30.31139945983887</v>
-      </c>
       <c r="M14" t="n">
-        <v>0.2230422347784042</v>
+        <v>0.223054826259613</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2198330014944077</v>
+        <v>0.2412353157997131</v>
       </c>
       <c r="O14" t="n">
         <v>41.2182731628418</v>
@@ -1655,10 +1655,10 @@
         <v>21.58244514465332</v>
       </c>
       <c r="U14" t="n">
-        <v>13.22446441650391</v>
+        <v>24.16772651672363</v>
       </c>
       <c r="V14" t="n">
-        <v>2.481639862060547</v>
+        <v>1.82990026473999</v>
       </c>
       <c r="W14" t="n">
         <v>14.49610996246338</v>
@@ -1673,10 +1673,10 @@
         <v>41.10686111450195</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.2282880246639252</v>
+        <v>0.2606974542140961</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.3495545387268066</v>
+        <v>0.02408353053033352</v>
       </c>
     </row>
     <row r="15">
@@ -1696,31 +1696,31 @@
         <v>20.18269920349121</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.251499891281128</v>
+        <v>30.35689926147461</v>
       </c>
       <c r="G15" t="n">
-        <v>30.35689926147461</v>
+        <v>-13.56079959869385</v>
       </c>
       <c r="H15" t="n">
         <v>-13.92269992828369</v>
       </c>
       <c r="I15" t="n">
+        <v>-3.251499891281128</v>
+      </c>
+      <c r="J15" t="n">
         <v>-11.90139961242676</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>31.86380004882812</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>0.4334000051021576</v>
       </c>
-      <c r="L15" t="n">
-        <v>-13.56079959869385</v>
-      </c>
       <c r="M15" t="n">
-        <v>0.3140471577644348</v>
+        <v>0.3140648603439331</v>
       </c>
       <c r="N15" t="n">
-        <v>0.3080871403217316</v>
+        <v>0.2669759690761566</v>
       </c>
       <c r="O15" t="n">
         <v>51.11111068725586</v>
@@ -1739,10 +1739,10 @@
         <v>24.98263931274414</v>
       </c>
       <c r="U15" t="n">
-        <v>24.82451629638672</v>
+        <v>12.76346111297607</v>
       </c>
       <c r="V15" t="n">
-        <v>2.0411057472229</v>
+        <v>1.420297861099243</v>
       </c>
       <c r="W15" t="n">
         <v>19.54362106323242</v>
@@ -1757,10 +1757,10 @@
         <v>48.35897445678711</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.3524986505508423</v>
+        <v>0.3084364831447601</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.1383463740348816</v>
+        <v>0.03990140184760094</v>
       </c>
     </row>
     <row r="16">
@@ -1780,31 +1780,31 @@
         <v>43.37689971923828</v>
       </c>
       <c r="F16" t="n">
-        <v>3.18179988861084</v>
+        <v>31.14469909667969</v>
       </c>
       <c r="G16" t="n">
-        <v>31.14469909667969</v>
+        <v>11.91059970855713</v>
       </c>
       <c r="H16" t="n">
         <v>-12.27309989929199</v>
       </c>
       <c r="I16" t="n">
+        <v>3.18179988861084</v>
+      </c>
+      <c r="J16" t="n">
         <v>-10.01070022583008</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>30.02499961853027</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>0.6880000233650208</v>
       </c>
-      <c r="L16" t="n">
-        <v>11.91059970855713</v>
-      </c>
       <c r="M16" t="n">
-        <v>0.2975424826145172</v>
+        <v>0.2975592613220215</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3037317395210266</v>
+        <v>0.3207435309886932</v>
       </c>
       <c r="O16" t="n">
         <v>38.0880126953125</v>
@@ -1823,10 +1823,10 @@
         <v>18.0644474029541</v>
       </c>
       <c r="U16" t="n">
-        <v>5.456522464752197</v>
+        <v>11.65168952941895</v>
       </c>
       <c r="V16" t="n">
-        <v>2.233443975448608</v>
+        <v>1.366904139518738</v>
       </c>
       <c r="W16" t="n">
         <v>21.49975967407227</v>
@@ -1841,10 +1841,10 @@
         <v>21.5783748626709</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.3234190046787262</v>
+        <v>0.3481103479862213</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.2706573605537415</v>
+        <v>0.08506174385547638</v>
       </c>
     </row>
     <row r="17">
@@ -1864,31 +1864,31 @@
         <v>44.65409851074219</v>
       </c>
       <c r="F17" t="n">
-        <v>3.718699932098389</v>
+        <v>35.38079833984375</v>
       </c>
       <c r="G17" t="n">
-        <v>35.38079833984375</v>
+        <v>13.34119987487793</v>
       </c>
       <c r="H17" t="n">
         <v>-2.043800115585327</v>
       </c>
       <c r="I17" t="n">
+        <v>3.718699932098389</v>
+      </c>
+      <c r="J17" t="n">
         <v>-1.895900011062622</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>25.6776008605957</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>0.9591000080108643</v>
       </c>
-      <c r="L17" t="n">
-        <v>13.34119987487793</v>
-      </c>
       <c r="M17" t="n">
-        <v>0.4149090051651001</v>
+        <v>0.4149324297904968</v>
       </c>
       <c r="N17" t="n">
-        <v>0.4109547436237335</v>
+        <v>0.3777212202548981</v>
       </c>
       <c r="O17" t="n">
         <v>47.55916976928711</v>
@@ -1907,10 +1907,10 @@
         <v>21.0198917388916</v>
       </c>
       <c r="U17" t="n">
-        <v>12.29858493804932</v>
+        <v>6.460536003112793</v>
       </c>
       <c r="V17" t="n">
-        <v>1.952130436897278</v>
+        <v>1.105931162834167</v>
       </c>
       <c r="W17" t="n">
         <v>29.21806907653809</v>
@@ -1925,10 +1925,10 @@
         <v>51.45060348510742</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.4505506157875061</v>
+        <v>0.4169481098651886</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.3591906130313873</v>
+        <v>0.1135203093290329</v>
       </c>
     </row>
     <row r="18">
@@ -1948,31 +1948,31 @@
         <v>45.55509948730469</v>
       </c>
       <c r="F18" t="n">
-        <v>3.724299907684326</v>
+        <v>39.39939880371094</v>
       </c>
       <c r="G18" t="n">
-        <v>39.39939880371094</v>
+        <v>13.73449993133545</v>
       </c>
       <c r="H18" t="n">
         <v>7.394700050354004</v>
       </c>
       <c r="I18" t="n">
+        <v>3.724299907684326</v>
+      </c>
+      <c r="J18" t="n">
         <v>7.124499797821045</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>24.77980041503906</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>0.2712000012397766</v>
       </c>
-      <c r="L18" t="n">
-        <v>13.73449993133545</v>
-      </c>
       <c r="M18" t="n">
-        <v>0.2918117046356201</v>
+        <v>0.2918281555175781</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2887170612812042</v>
+        <v>0.3696160316467285</v>
       </c>
       <c r="O18" t="n">
         <v>35.65192794799805</v>
@@ -1993,10 +1993,10 @@
         <v>21.40608596801758</v>
       </c>
       <c r="U18" t="n">
-        <v>-5.001485347747803</v>
+        <v>-5.217097759246826</v>
       </c>
       <c r="V18" t="n">
-        <v>2.303796052932739</v>
+        <v>1.322687864303589</v>
       </c>
       <c r="W18" t="n">
         <v>27.12841987609863</v>
@@ -2011,10 +2011,10 @@
         <v>78.98812866210938</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.3220724761486053</v>
+        <v>0.3973899185657501</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.2968020439147949</v>
+        <v>0.3813004195690155</v>
       </c>
     </row>
     <row r="19">
@@ -2034,31 +2034,31 @@
         <v>16.55459976196289</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.74180006980896</v>
+        <v>38.42340087890625</v>
       </c>
       <c r="G19" t="n">
-        <v>38.42340087890625</v>
+        <v>-17.37669944763184</v>
       </c>
       <c r="H19" t="n">
         <v>6.361299991607666</v>
       </c>
       <c r="I19" t="n">
+        <v>-3.74180006980896</v>
+      </c>
+      <c r="J19" t="n">
         <v>6.305799961090088</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>26.01670074462891</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>0.4955999851226807</v>
       </c>
-      <c r="L19" t="n">
-        <v>-17.37669944763184</v>
-      </c>
       <c r="M19" t="n">
-        <v>0.2209791541099548</v>
+        <v>0.2209916263818741</v>
       </c>
       <c r="N19" t="n">
-        <v>0.226480707526207</v>
+        <v>0.2458649724721909</v>
       </c>
       <c r="O19" t="n">
         <v>38.92455673217773</v>
@@ -2079,10 +2079,10 @@
         <v>23.10293197631836</v>
       </c>
       <c r="U19" t="n">
-        <v>-10.29514980316162</v>
+        <v>-0.2074842005968094</v>
       </c>
       <c r="V19" t="n">
-        <v>2.083682060241699</v>
+        <v>1.227740287780762</v>
       </c>
       <c r="W19" t="n">
         <v>28.3261547088623</v>
@@ -2097,10 +2097,10 @@
         <v>77.66336059570312</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.2218454331159592</v>
+        <v>0.2636188268661499</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.5237207412719727</v>
+        <v>0.03001171164214611</v>
       </c>
     </row>
     <row r="20">
@@ -2120,31 +2120,31 @@
         <v>46.45769882202148</v>
       </c>
       <c r="F20" t="n">
-        <v>2.219500064849854</v>
+        <v>39.05709838867188</v>
       </c>
       <c r="G20" t="n">
-        <v>39.05709838867188</v>
+        <v>10.05580043792725</v>
       </c>
       <c r="H20" t="n">
         <v>5.840799808502197</v>
       </c>
       <c r="I20" t="n">
+        <v>2.219500064849854</v>
+      </c>
+      <c r="J20" t="n">
         <v>5.428899765014648</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>25.99099922180176</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>0.7084000110626221</v>
       </c>
-      <c r="L20" t="n">
-        <v>10.05580043792725</v>
-      </c>
       <c r="M20" t="n">
-        <v>0.3433887660503387</v>
+        <v>0.3434081673622131</v>
       </c>
       <c r="N20" t="n">
-        <v>0.3380304872989655</v>
+        <v>0.2715304791927338</v>
       </c>
       <c r="O20" t="n">
         <v>59.58498001098633</v>
@@ -2165,10 +2165,10 @@
         <v>28.04203987121582</v>
       </c>
       <c r="U20" t="n">
-        <v>26.03117179870605</v>
+        <v>16.46406936645508</v>
       </c>
       <c r="V20" t="n">
-        <v>1.832138299942017</v>
+        <v>1.067868709564209</v>
       </c>
       <c r="W20" t="n">
         <v>27.118896484375</v>
@@ -2183,10 +2183,10 @@
         <v>62.85260391235352</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.3432267010211945</v>
+        <v>0.3292736411094666</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.1751206964254379</v>
+        <v>0.3933614194393158</v>
       </c>
     </row>
     <row r="21">
@@ -2206,31 +2206,31 @@
         <v>48.10139846801758</v>
       </c>
       <c r="F21" t="n">
-        <v>4.081699848175049</v>
+        <v>39.76760101318359</v>
       </c>
       <c r="G21" t="n">
-        <v>39.76760101318359</v>
+        <v>19.36549949645996</v>
       </c>
       <c r="H21" t="n">
         <v>7.144299983978271</v>
       </c>
       <c r="I21" t="n">
+        <v>4.081699848175049</v>
+      </c>
+      <c r="J21" t="n">
         <v>5.631400108337402</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>29.22610092163086</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>0.8769000172615051</v>
       </c>
-      <c r="L21" t="n">
-        <v>19.36549949645996</v>
-      </c>
       <c r="M21" t="n">
-        <v>0.4018428027629852</v>
+        <v>0.4018654823303223</v>
       </c>
       <c r="N21" t="n">
-        <v>0.4033327996730804</v>
+        <v>0.4587971866130829</v>
       </c>
       <c r="O21" t="n">
         <v>82.96295928955078</v>
@@ -2251,10 +2251,10 @@
         <v>15.34076404571533</v>
       </c>
       <c r="U21" t="n">
-        <v>0.8638448119163513</v>
+        <v>3.395184516906738</v>
       </c>
       <c r="V21" t="n">
-        <v>1.95918345451355</v>
+        <v>1.032586097717285</v>
       </c>
       <c r="W21" t="n">
         <v>15.3742618560791</v>
@@ -2269,10 +2269,10 @@
         <v>68.09644317626953</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.5225738883018494</v>
+        <v>0.4604671895503998</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.1145677641034126</v>
+        <v>0.07752204686403275</v>
       </c>
     </row>
     <row r="22">
@@ -2292,31 +2292,31 @@
         <v>50.36209869384766</v>
       </c>
       <c r="F22" t="n">
-        <v>2.929399967193604</v>
+        <v>41.02190017700195</v>
       </c>
       <c r="G22" t="n">
-        <v>41.02190017700195</v>
+        <v>14.05550003051758</v>
       </c>
       <c r="H22" t="n">
         <v>7.157700061798096</v>
       </c>
       <c r="I22" t="n">
+        <v>2.929399967193604</v>
+      </c>
+      <c r="J22" t="n">
         <v>5.29419994354248</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>27.21139907836914</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>0.2083999961614609</v>
       </c>
-      <c r="L22" t="n">
-        <v>14.05550003051758</v>
-      </c>
       <c r="M22" t="n">
-        <v>0.4699245691299438</v>
+        <v>0.4699510931968689</v>
       </c>
       <c r="N22" t="n">
-        <v>0.4627037644386292</v>
+        <v>0.4247708320617676</v>
       </c>
       <c r="O22" t="n">
         <v>20.89467811584473</v>
@@ -2337,10 +2337,10 @@
         <v>14.20645141601562</v>
       </c>
       <c r="U22" t="n">
-        <v>13.63763999938965</v>
+        <v>6.087494373321533</v>
       </c>
       <c r="V22" t="n">
-        <v>1.707582473754883</v>
+        <v>0.9668014645576477</v>
       </c>
       <c r="W22" t="n">
         <v>18.0487174987793</v>
@@ -2355,10 +2355,10 @@
         <v>57.66080093383789</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.5276803374290466</v>
+        <v>0.4183252155780792</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.4406925141811371</v>
+        <v>0.1191000863909721</v>
       </c>
     </row>
     <row r="23">
@@ -2378,31 +2378,31 @@
         <v>51.67490005493164</v>
       </c>
       <c r="F23" t="n">
-        <v>3.157399892807007</v>
+        <v>49.2932014465332</v>
       </c>
       <c r="G23" t="n">
-        <v>49.2932014465332</v>
+        <v>14.91100025177002</v>
       </c>
       <c r="H23" t="n">
         <v>14.64890003204346</v>
       </c>
       <c r="I23" t="n">
+        <v>3.157399892807007</v>
+      </c>
+      <c r="J23" t="n">
         <v>11.16889953613281</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>24.15399932861328</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>0.4228000044822693</v>
       </c>
-      <c r="L23" t="n">
-        <v>14.91100025177002</v>
-      </c>
       <c r="M23" t="n">
-        <v>0.3073994219303131</v>
+        <v>0.3074167668819427</v>
       </c>
       <c r="N23" t="n">
-        <v>0.2951355576515198</v>
+        <v>0.3685026466846466</v>
       </c>
       <c r="O23" t="n">
         <v>43.63361740112305</v>
@@ -2423,10 +2423,10 @@
         <v>8.933666229248047</v>
       </c>
       <c r="U23" t="n">
-        <v>-16.88570022583008</v>
+        <v>-10.41267204284668</v>
       </c>
       <c r="V23" t="n">
-        <v>1.935422539710999</v>
+        <v>1.096102714538574</v>
       </c>
       <c r="W23" t="n">
         <v>13.24604225158691</v>
@@ -2441,10 +2441,10 @@
         <v>41.48577880859375</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.3511681854724884</v>
+        <v>0.3435143828392029</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.06033989414572716</v>
+        <v>0.06773693114519119</v>
       </c>
     </row>
     <row r="24">
@@ -2464,31 +2464,31 @@
         <v>52.21599960327148</v>
       </c>
       <c r="F24" t="n">
-        <v>3.582099914550781</v>
+        <v>50.69459915161133</v>
       </c>
       <c r="G24" t="n">
-        <v>50.69459915161133</v>
+        <v>16.72069931030273</v>
       </c>
       <c r="H24" t="n">
         <v>16.19680023193359</v>
       </c>
       <c r="I24" t="n">
+        <v>3.582099914550781</v>
+      </c>
+      <c r="J24" t="n">
         <v>12.51150035858154</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>21.92149925231934</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>0.6353999972343445</v>
       </c>
-      <c r="L24" t="n">
-        <v>16.72069931030273</v>
-      </c>
       <c r="M24" t="n">
-        <v>0.3316979706287384</v>
+        <v>0.3317166864871979</v>
       </c>
       <c r="N24" t="n">
-        <v>0.329978734254837</v>
+        <v>0.320245772600174</v>
       </c>
       <c r="O24" t="n">
         <v>37.52025985717773</v>
@@ -2509,10 +2509,10 @@
         <v>9.360154151916504</v>
       </c>
       <c r="U24" t="n">
-        <v>17.54471969604492</v>
+        <v>12.16867256164551</v>
       </c>
       <c r="V24" t="n">
-        <v>1.922444462776184</v>
+        <v>1.22968065738678</v>
       </c>
       <c r="W24" t="n">
         <v>13.77942848205566</v>
@@ -2527,10 +2527,10 @@
         <v>37.16646957397461</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.3409101665019989</v>
+        <v>0.3414600491523743</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.08964085578918457</v>
+        <v>0.01450089737772942</v>
       </c>
     </row>
     <row r="25">
@@ -2550,31 +2550,31 @@
         <v>51.40750122070312</v>
       </c>
       <c r="F25" t="n">
-        <v>2.180500030517578</v>
+        <v>51.43949890136719</v>
       </c>
       <c r="G25" t="n">
-        <v>51.43949890136719</v>
+        <v>12.17220020294189</v>
       </c>
       <c r="H25" t="n">
         <v>14.53479957580566</v>
       </c>
       <c r="I25" t="n">
+        <v>2.180500030517578</v>
+      </c>
+      <c r="J25" t="n">
         <v>10.464599609375</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>25.34169960021973</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>0.7957999706268311</v>
       </c>
-      <c r="L25" t="n">
-        <v>12.17220020294189</v>
-      </c>
       <c r="M25" t="n">
-        <v>0.3706673085689545</v>
+        <v>0.3706882297992706</v>
       </c>
       <c r="N25" t="n">
-        <v>0.371469646692276</v>
+        <v>0.336508572101593</v>
       </c>
       <c r="O25" t="n">
         <v>26.46648025512695</v>
@@ -2595,10 +2595,10 @@
         <v>10.860915184021</v>
       </c>
       <c r="U25" t="n">
-        <v>15.47025871276855</v>
+        <v>11.20935440063477</v>
       </c>
       <c r="V25" t="n">
-        <v>1.544426083564758</v>
+        <v>0.987708568572998</v>
       </c>
       <c r="W25" t="n">
         <v>16.92992973327637</v>
@@ -2613,10 +2613,10 @@
         <v>33.28037261962891</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.3774892389774323</v>
+        <v>0.364262729883194</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.2218052297830582</v>
+        <v>0.09439761191606522</v>
       </c>
     </row>
     <row r="26">
@@ -2636,31 +2636,31 @@
         <v>50.10010147094727</v>
       </c>
       <c r="F26" t="n">
-        <v>1.073400020599365</v>
+        <v>51.38850021362305</v>
       </c>
       <c r="G26" t="n">
-        <v>51.38850021362305</v>
+        <v>6.534599781036377</v>
       </c>
       <c r="H26" t="n">
         <v>12.78310012817383</v>
       </c>
       <c r="I26" t="n">
+        <v>1.073400020599365</v>
+      </c>
+      <c r="J26" t="n">
         <v>8.869899749755859</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>24.88960075378418</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>0.1642999947071075</v>
       </c>
-      <c r="L26" t="n">
-        <v>6.534599781036377</v>
-      </c>
       <c r="M26" t="n">
-        <v>0.3028148114681244</v>
+        <v>0.3028318881988525</v>
       </c>
       <c r="N26" t="n">
-        <v>0.2937601506710052</v>
+        <v>0.3298771977424622</v>
       </c>
       <c r="O26" t="n">
         <v>29.43349838256836</v>
@@ -2681,10 +2681,10 @@
         <v>11.18207263946533</v>
       </c>
       <c r="U26" t="n">
-        <v>-1.096226453781128</v>
+        <v>2.283576965332031</v>
       </c>
       <c r="V26" t="n">
-        <v>1.467824935913086</v>
+        <v>0.9691673517227173</v>
       </c>
       <c r="W26" t="n">
         <v>15.52048015594482</v>
@@ -2699,10 +2699,10 @@
         <v>30.69638061523438</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.3258894085884094</v>
+        <v>0.3219389617443085</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.0178237222135067</v>
+        <v>0.08299863338470459</v>
       </c>
     </row>
     <row r="27">
@@ -2722,31 +2722,31 @@
         <v>51.77959823608398</v>
       </c>
       <c r="F27" t="n">
-        <v>2.052500009536743</v>
+        <v>51.41790008544922</v>
       </c>
       <c r="G27" t="n">
-        <v>51.41790008544922</v>
+        <v>11.39990043640137</v>
       </c>
       <c r="H27" t="n">
         <v>11.87860012054443</v>
       </c>
       <c r="I27" t="n">
+        <v>2.052500009536743</v>
+      </c>
+      <c r="J27" t="n">
         <v>8.041299819946289</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>24.41010093688965</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>0.3440999984741211</v>
       </c>
-      <c r="L27" t="n">
-        <v>11.39990043640137</v>
-      </c>
       <c r="M27" t="n">
-        <v>0.3371995389461517</v>
+        <v>0.3372185528278351</v>
       </c>
       <c r="N27" t="n">
-        <v>0.3316979706287384</v>
+        <v>0.2952184677124023</v>
       </c>
       <c r="O27" t="n">
         <v>25.04025840759277</v>
@@ -2767,10 +2767,10 @@
         <v>10.75179386138916</v>
       </c>
       <c r="U27" t="n">
-        <v>1.280167102813721</v>
+        <v>4.413164615631104</v>
       </c>
       <c r="V27" t="n">
-        <v>1.457159876823425</v>
+        <v>0.9991782307624817</v>
       </c>
       <c r="W27" t="n">
         <v>16.10773468017578</v>
@@ -2785,10 +2785,10 @@
         <v>35.04515075683594</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.3494728803634644</v>
+        <v>0.3155493438243866</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.1705767512321472</v>
+        <v>0.02323499880731106</v>
       </c>
     </row>
     <row r="28">
@@ -2808,31 +2808,31 @@
         <v>52.87369918823242</v>
       </c>
       <c r="F28" t="n">
-        <v>3.49429988861084</v>
+        <v>51.63650131225586</v>
       </c>
       <c r="G28" t="n">
-        <v>51.63650131225586</v>
+        <v>17.36389923095703</v>
       </c>
       <c r="H28" t="n">
         <v>12.22809982299805</v>
       </c>
       <c r="I28" t="n">
+        <v>3.49429988861084</v>
+      </c>
+      <c r="J28" t="n">
         <v>8.305800437927246</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>22.25950050354004</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>0.5457999706268311</v>
       </c>
-      <c r="L28" t="n">
-        <v>17.36389923095703</v>
-      </c>
       <c r="M28" t="n">
-        <v>0.2906655371189117</v>
+        <v>0.290681928396225</v>
       </c>
       <c r="N28" t="n">
-        <v>0.2898609340190887</v>
+        <v>0.3082175552845001</v>
       </c>
       <c r="O28" t="n">
         <v>23.82290840148926</v>
@@ -2853,10 +2853,10 @@
         <v>10.02315807342529</v>
       </c>
       <c r="U28" t="n">
-        <v>-13.84981536865234</v>
+        <v>-0.1234771907329559</v>
       </c>
       <c r="V28" t="n">
-        <v>1.520736932754517</v>
+        <v>0.9106486439704895</v>
       </c>
       <c r="W28" t="n">
         <v>16.09665298461914</v>
@@ -2871,10 +2871,10 @@
         <v>25.97029304504395</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.3023587167263031</v>
+        <v>0.3036962449550629</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.05383523181080818</v>
+        <v>0.07079517841339111</v>
       </c>
     </row>
     <row r="29">
@@ -2894,31 +2894,31 @@
         <v>52.90459823608398</v>
       </c>
       <c r="F29" t="n">
-        <v>2.786400079727173</v>
+        <v>52.01539993286133</v>
       </c>
       <c r="G29" t="n">
-        <v>52.01539993286133</v>
+        <v>15.71710014343262</v>
       </c>
       <c r="H29" t="n">
         <v>13.14290046691895</v>
       </c>
       <c r="I29" t="n">
+        <v>2.786400079727173</v>
+      </c>
+      <c r="J29" t="n">
         <v>8.772800445556641</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>24.71120071411133</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>0.7153999805450439</v>
       </c>
-      <c r="L29" t="n">
-        <v>15.71710014343262</v>
-      </c>
       <c r="M29" t="n">
-        <v>0.2853890359401703</v>
+        <v>0.285405158996582</v>
       </c>
       <c r="N29" t="n">
-        <v>0.2860811650753021</v>
+        <v>0.2821960151195526</v>
       </c>
       <c r="O29" t="n">
         <v>16.85283851623535</v>
@@ -2939,10 +2939,10 @@
         <v>9.378387451171875</v>
       </c>
       <c r="U29" t="n">
-        <v>10.06300830841064</v>
+        <v>10.85990333557129</v>
       </c>
       <c r="V29" t="n">
-        <v>1.499743580818176</v>
+        <v>0.9153037071228027</v>
       </c>
       <c r="W29" t="n">
         <v>21.17875480651855</v>
@@ -2957,10 +2957,10 @@
         <v>33.94107437133789</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.2799462974071503</v>
+        <v>0.2938743233680725</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.1529340893030167</v>
+        <v>0.01127587631344795</v>
       </c>
     </row>
     <row r="30">
@@ -2980,31 +2980,31 @@
         <v>54.31520080566406</v>
       </c>
       <c r="F30" t="n">
-        <v>1.227399945259094</v>
+        <v>52.9359016418457</v>
       </c>
       <c r="G30" t="n">
-        <v>52.9359016418457</v>
+        <v>8.15839958190918</v>
       </c>
       <c r="H30" t="n">
         <v>13.45680046081543</v>
       </c>
       <c r="I30" t="n">
+        <v>1.227399945259094</v>
+      </c>
+      <c r="J30" t="n">
         <v>9.236200332641602</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>23.16399955749512</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>0.1504999995231628</v>
       </c>
-      <c r="L30" t="n">
-        <v>8.15839958190918</v>
-      </c>
       <c r="M30" t="n">
-        <v>0.3228873014450073</v>
+        <v>0.3229055404663086</v>
       </c>
       <c r="N30" t="n">
-        <v>0.3227596282958984</v>
+        <v>0.297188013792038</v>
       </c>
       <c r="O30" t="n">
         <v>16.21695137023926</v>
@@ -3025,10 +3025,10 @@
         <v>8.491604804992676</v>
       </c>
       <c r="U30" t="n">
-        <v>12.23807334899902</v>
+        <v>8.503782272338867</v>
       </c>
       <c r="V30" t="n">
-        <v>1.53119957447052</v>
+        <v>0.9294179081916809</v>
       </c>
       <c r="W30" t="n">
         <v>21.94705390930176</v>
@@ -3043,10 +3043,10 @@
         <v>36.90116882324219</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.3188220262527466</v>
+        <v>0.3151015639305115</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.07200989127159119</v>
+        <v>0.06611362844705582</v>
       </c>
     </row>
     <row r="31">
@@ -3066,31 +3066,31 @@
         <v>55.82450103759766</v>
       </c>
       <c r="F31" t="n">
-        <v>1.627900004386902</v>
+        <v>53.88570022583008</v>
       </c>
       <c r="G31" t="n">
-        <v>53.88570022583008</v>
+        <v>9.869400024414062</v>
       </c>
       <c r="H31" t="n">
         <v>13.13679981231689</v>
       </c>
       <c r="I31" t="n">
+        <v>1.627900004386902</v>
+      </c>
+      <c r="J31" t="n">
         <v>10.00780010223389</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>25.09020042419434</v>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>0.3224999904632568</v>
       </c>
-      <c r="L31" t="n">
-        <v>9.869400024414062</v>
-      </c>
       <c r="M31" t="n">
-        <v>0.3429352045059204</v>
+        <v>0.3429545760154724</v>
       </c>
       <c r="N31" t="n">
-        <v>0.3417803645133972</v>
+        <v>0.3359340727329254</v>
       </c>
       <c r="O31" t="n">
         <v>13.87604808807373</v>
@@ -3111,10 +3111,10 @@
         <v>9.390527725219727</v>
       </c>
       <c r="U31" t="n">
-        <v>2.983180046081543</v>
+        <v>5.311826229095459</v>
       </c>
       <c r="V31" t="n">
-        <v>1.564238548278809</v>
+        <v>0.8537521958351135</v>
       </c>
       <c r="W31" t="n">
         <v>21.96248435974121</v>
@@ -3129,10 +3129,10 @@
         <v>48.45059585571289</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.3441830575466156</v>
+        <v>0.3454580307006836</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.002999255200847983</v>
+        <v>0.03484923020005226</v>
       </c>
     </row>
     <row r="32">
@@ -3152,31 +3152,31 @@
         <v>55.44910049438477</v>
       </c>
       <c r="F32" t="n">
-        <v>2.105000019073486</v>
+        <v>54.58610153198242</v>
       </c>
       <c r="G32" t="n">
-        <v>54.58610153198242</v>
+        <v>11.26539993286133</v>
       </c>
       <c r="H32" t="n">
         <v>11.41129970550537</v>
       </c>
       <c r="I32" t="n">
+        <v>2.105000019073486</v>
+      </c>
+      <c r="J32" t="n">
         <v>8.177499771118164</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>24.35009956359863</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>0.4925999939441681</v>
       </c>
-      <c r="L32" t="n">
-        <v>11.26539993286133</v>
-      </c>
       <c r="M32" t="n">
-        <v>0.3410532772541046</v>
+        <v>0.3410725295543671</v>
       </c>
       <c r="N32" t="n">
-        <v>0.3452153503894806</v>
+        <v>0.357496976852417</v>
       </c>
       <c r="O32" t="n">
         <v>21.03545761108398</v>
@@ -3197,10 +3197,10 @@
         <v>9.504517555236816</v>
       </c>
       <c r="U32" t="n">
-        <v>8.083725929260254</v>
+        <v>4.918334007263184</v>
       </c>
       <c r="V32" t="n">
-        <v>1.487244725227356</v>
+        <v>0.7935007214546204</v>
       </c>
       <c r="W32" t="n">
         <v>18.38134956359863</v>
@@ -3215,10 +3215,10 @@
         <v>44.27037048339844</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.3472257554531097</v>
+        <v>0.3630850315093994</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.1229948103427887</v>
+        <v>0.01693196222186089</v>
       </c>
     </row>
     <row r="33">
@@ -3238,31 +3238,31 @@
         <v>54.11920166015625</v>
       </c>
       <c r="F33" t="n">
-        <v>2.266799926757812</v>
+        <v>54.90739822387695</v>
       </c>
       <c r="G33" t="n">
-        <v>54.90739822387695</v>
+        <v>12.83990001678467</v>
       </c>
       <c r="H33" t="n">
         <v>10.65310001373291</v>
       </c>
       <c r="I33" t="n">
+        <v>2.266799926757812</v>
+      </c>
+      <c r="J33" t="n">
         <v>6.068099975585938</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>38.54000091552734</v>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>0.6046000123023987</v>
       </c>
-      <c r="L33" t="n">
-        <v>12.83990001678467</v>
-      </c>
       <c r="M33" t="n">
-        <v>0.3967695236206055</v>
+        <v>0.3967919051647186</v>
       </c>
       <c r="N33" t="n">
-        <v>0.3899327218532562</v>
+        <v>0.3692327737808228</v>
       </c>
       <c r="O33" t="n">
         <v>16.92480659484863</v>
@@ -3283,10 +3283,10 @@
         <v>11.45722389221191</v>
       </c>
       <c r="U33" t="n">
-        <v>10.31544971466064</v>
+        <v>4.593987941741943</v>
       </c>
       <c r="V33" t="n">
-        <v>1.402910232543945</v>
+        <v>0.8463965058326721</v>
       </c>
       <c r="W33" t="n">
         <v>23.15117835998535</v>
@@ -3301,10 +3301,10 @@
         <v>56.83473968505859</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.404510110616684</v>
+        <v>0.4008025228977203</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.07954870164394379</v>
+        <v>0.08323948830366135</v>
       </c>
     </row>
     <row r="34">
@@ -3324,31 +3324,31 @@
         <v>54.78860092163086</v>
       </c>
       <c r="F34" t="n">
-        <v>1.934299945831299</v>
+        <v>55.0088996887207</v>
       </c>
       <c r="G34" t="n">
-        <v>55.0088996887207</v>
+        <v>12.37919998168945</v>
       </c>
       <c r="H34" t="n">
         <v>11.65480041503906</v>
       </c>
       <c r="I34" t="n">
+        <v>1.934299945831299</v>
+      </c>
+      <c r="J34" t="n">
         <v>7.263500213623047</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>39.29800033569336</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>0.1562999933958054</v>
       </c>
-      <c r="L34" t="n">
-        <v>12.37919998168945</v>
-      </c>
       <c r="M34" t="n">
-        <v>0.432188868522644</v>
+        <v>0.4322132766246796</v>
       </c>
       <c r="N34" t="n">
-        <v>0.4366883635520935</v>
+        <v>0.4341651201248169</v>
       </c>
       <c r="O34" t="n">
         <v>19.98687362670898</v>
@@ -3369,10 +3369,10 @@
         <v>12.47955703735352</v>
       </c>
       <c r="U34" t="n">
-        <v>8.870892524719238</v>
+        <v>3.327537298202515</v>
       </c>
       <c r="V34" t="n">
-        <v>1.399911880493164</v>
+        <v>0.8624864816665649</v>
       </c>
       <c r="W34" t="n">
         <v>23.99808692932129</v>
@@ -3387,10 +3387,10 @@
         <v>60.87952041625977</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.4503035247325897</v>
+        <v>0.4582316279411316</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.07278983294963837</v>
+        <v>0.03518675267696381</v>
       </c>
     </row>
     <row r="35">
@@ -3410,31 +3410,31 @@
         <v>56.12630081176758</v>
       </c>
       <c r="F35" t="n">
-        <v>1.854900002479553</v>
+        <v>55.1077995300293</v>
       </c>
       <c r="G35" t="n">
-        <v>55.1077995300293</v>
+        <v>11.60439968109131</v>
       </c>
       <c r="H35" t="n">
         <v>12.03829956054688</v>
       </c>
       <c r="I35" t="n">
+        <v>1.854900002479553</v>
+      </c>
+      <c r="J35" t="n">
         <v>7.645899772644043</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>37.91519927978516</v>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>0.3109999895095825</v>
       </c>
-      <c r="L35" t="n">
-        <v>11.60439968109131</v>
-      </c>
       <c r="M35" t="n">
-        <v>0.415384829044342</v>
+        <v>0.4154082834720612</v>
       </c>
       <c r="N35" t="n">
-        <v>0.4175260066986084</v>
+        <v>0.4421079456806183</v>
       </c>
       <c r="O35" t="n">
         <v>12.88785743713379</v>
@@ -3455,10 +3455,10 @@
         <v>12.02235984802246</v>
       </c>
       <c r="U35" t="n">
-        <v>14.5350170135498</v>
+        <v>2.486534833908081</v>
       </c>
       <c r="V35" t="n">
-        <v>1.372927308082581</v>
+        <v>0.7543996572494507</v>
       </c>
       <c r="W35" t="n">
         <v>24.39656257629395</v>
@@ -3473,10 +3473,10 @@
         <v>69.0338134765625</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.4268577992916107</v>
+        <v>0.445115715265274</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.1294152587652206</v>
+        <v>0.007897236384451389</v>
       </c>
     </row>
     <row r="36">
@@ -3496,31 +3496,31 @@
         <v>55.2234001159668</v>
       </c>
       <c r="F36" t="n">
-        <v>2.503200054168701</v>
+        <v>55.06010055541992</v>
       </c>
       <c r="G36" t="n">
-        <v>55.06010055541992</v>
+        <v>14.11540031433105</v>
       </c>
       <c r="H36" t="n">
         <v>12.77270030975342</v>
       </c>
       <c r="I36" t="n">
+        <v>2.503200054168701</v>
+      </c>
+      <c r="J36" t="n">
         <v>8.486599922180176</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>38.93880081176758</v>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>0.48539999127388</v>
       </c>
-      <c r="L36" t="n">
-        <v>14.11540031433105</v>
-      </c>
       <c r="M36" t="n">
-        <v>0.4831750392913818</v>
+        <v>0.4832023084163666</v>
       </c>
       <c r="N36" t="n">
-        <v>0.482099711894989</v>
+        <v>0.4486308991909027</v>
       </c>
       <c r="O36" t="n">
         <v>19.84362983703613</v>
@@ -3541,10 +3541,10 @@
         <v>12.68762016296387</v>
       </c>
       <c r="U36" t="n">
-        <v>7.594518184661865</v>
+        <v>7.676502227783203</v>
       </c>
       <c r="V36" t="n">
-        <v>1.417862176895142</v>
+        <v>0.7956238985061646</v>
       </c>
       <c r="W36" t="n">
         <v>24.87092971801758</v>
@@ -3559,10 +3559,10 @@
         <v>53.2030143737793</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.5104475021362305</v>
+        <v>0.4928249418735504</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.01839491538703442</v>
+        <v>0.01815448887646198</v>
       </c>
     </row>
     <row r="37">
@@ -3582,31 +3582,31 @@
         <v>55.9452018737793</v>
       </c>
       <c r="F37" t="n">
-        <v>2.741899967193604</v>
+        <v>55.5265007019043</v>
       </c>
       <c r="G37" t="n">
-        <v>55.5265007019043</v>
+        <v>15.4439001083374</v>
       </c>
       <c r="H37" t="n">
         <v>13.46969985961914</v>
       </c>
       <c r="I37" t="n">
+        <v>2.741899967193604</v>
+      </c>
+      <c r="J37" t="n">
         <v>8.756500244140625</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>38.65079879760742</v>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>0.6478999853134155</v>
       </c>
-      <c r="L37" t="n">
-        <v>15.4439001083374</v>
-      </c>
       <c r="M37" t="n">
-        <v>0.4993780553340912</v>
+        <v>0.4994062483310699</v>
       </c>
       <c r="N37" t="n">
-        <v>0.5010578632354736</v>
+        <v>0.483877956867218</v>
       </c>
       <c r="O37" t="n">
         <v>11.52397346496582</v>
@@ -3627,10 +3627,10 @@
         <v>12.48929309844971</v>
       </c>
       <c r="U37" t="n">
-        <v>6.927509307861328</v>
+        <v>4.238354682922363</v>
       </c>
       <c r="V37" t="n">
-        <v>1.202049493789673</v>
+        <v>0.8005750179290771</v>
       </c>
       <c r="W37" t="n">
         <v>26.43044471740723</v>
@@ -3645,10 +3645,10 @@
         <v>53.32855224609375</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.5268476605415344</v>
+        <v>0.5161539912223816</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.01940991915762424</v>
+        <v>0.0369790755212307</v>
       </c>
     </row>
     <row r="38">
@@ -3668,31 +3668,31 @@
         <v>56.73329925537109</v>
       </c>
       <c r="F38" t="n">
-        <v>1.849200010299683</v>
+        <v>55.9921989440918</v>
       </c>
       <c r="G38" t="n">
-        <v>55.9921989440918</v>
+        <v>11.64210033416748</v>
       </c>
       <c r="H38" t="n">
         <v>13.27919960021973</v>
       </c>
       <c r="I38" t="n">
+        <v>1.849200010299683</v>
+      </c>
+      <c r="J38" t="n">
         <v>8.614299774169922</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>37.51200103759766</v>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>0.1588000059127808</v>
       </c>
-      <c r="L38" t="n">
-        <v>11.64210033416748</v>
-      </c>
       <c r="M38" t="n">
-        <v>0.5417711734771729</v>
+        <v>0.5418017506599426</v>
       </c>
       <c r="N38" t="n">
-        <v>0.5370737314224243</v>
+        <v>0.5352408885955811</v>
       </c>
       <c r="O38" t="n">
         <v>15.06973743438721</v>
@@ -3713,10 +3713,10 @@
         <v>12.3577995300293</v>
       </c>
       <c r="U38" t="n">
-        <v>1.669170618057251</v>
+        <v>2.104639053344727</v>
       </c>
       <c r="V38" t="n">
-        <v>1.275730729103088</v>
+        <v>0.7779198288917542</v>
       </c>
       <c r="W38" t="n">
         <v>27.35437202453613</v>
@@ -3731,10 +3731,10 @@
         <v>65.39540100097656</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.5739893317222595</v>
+        <v>0.5701611042022705</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.1350529789924622</v>
+        <v>0.1173135414719582</v>
       </c>
     </row>
     <row r="39">
@@ -3754,31 +3754,31 @@
         <v>54.98699951171875</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3643999993801117</v>
+        <v>55.69789886474609</v>
       </c>
       <c r="G39" t="n">
-        <v>55.69789886474609</v>
+        <v>2.255000114440918</v>
       </c>
       <c r="H39" t="n">
         <v>11.0064001083374</v>
       </c>
       <c r="I39" t="n">
+        <v>0.3643999993801117</v>
+      </c>
+      <c r="J39" t="n">
         <v>7.538300037384033</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>40.03440093994141</v>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>0.324999988079071</v>
       </c>
-      <c r="L39" t="n">
-        <v>2.255000114440918</v>
-      </c>
       <c r="M39" t="n">
-        <v>0.494897335767746</v>
+        <v>0.4949252605438232</v>
       </c>
       <c r="N39" t="n">
-        <v>0.4964703619480133</v>
+        <v>0.5032734870910645</v>
       </c>
       <c r="O39" t="n">
         <v>15.95594692230225</v>
@@ -3799,10 +3799,10 @@
         <v>10.30491065979004</v>
       </c>
       <c r="U39" t="n">
-        <v>-7.751037120819092</v>
+        <v>2.924413442611694</v>
       </c>
       <c r="V39" t="n">
-        <v>1.389192223548889</v>
+        <v>0.7712174654006958</v>
       </c>
       <c r="W39" t="n">
         <v>24.72966957092285</v>
@@ -3817,10 +3817,10 @@
         <v>60.13555526733398</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.5268604755401611</v>
+        <v>0.5062965750694275</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.2855153381824493</v>
+        <v>0.1744623184204102</v>
       </c>
     </row>
     <row r="40">
@@ -3840,31 +3840,31 @@
         <v>56.24520111083984</v>
       </c>
       <c r="F40" t="n">
-        <v>3.476300001144409</v>
+        <v>55.96450042724609</v>
       </c>
       <c r="G40" t="n">
-        <v>55.96450042724609</v>
+        <v>18.85059928894043</v>
       </c>
       <c r="H40" t="n">
         <v>12.32900047302246</v>
       </c>
       <c r="I40" t="n">
+        <v>3.476300001144409</v>
+      </c>
+      <c r="J40" t="n">
         <v>8.351400375366211</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>37.76139831542969</v>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>0.5020999908447266</v>
       </c>
-      <c r="L40" t="n">
-        <v>18.85059928894043</v>
-      </c>
       <c r="M40" t="n">
-        <v>0.6733989119529724</v>
+        <v>0.6734369397163391</v>
       </c>
       <c r="N40" t="n">
-        <v>0.677287220954895</v>
+        <v>0.594626247882843</v>
       </c>
       <c r="O40" t="n">
         <v>42.84135818481445</v>
@@ -3885,10 +3885,10 @@
         <v>13.49623584747314</v>
       </c>
       <c r="U40" t="n">
-        <v>9.975146293640137</v>
+        <v>1.525084376335144</v>
       </c>
       <c r="V40" t="n">
-        <v>1.415987014770508</v>
+        <v>0.894014298915863</v>
       </c>
       <c r="W40" t="n">
         <v>24.51900863647461</v>
@@ -3903,10 +3903,10 @@
         <v>68.91475677490234</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.7258026003837585</v>
+        <v>0.6887804865837097</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.08161758631467819</v>
+        <v>0.07365371286869049</v>
       </c>
     </row>
     <row r="41">
@@ -3926,31 +3926,31 @@
         <v>56.45970153808594</v>
       </c>
       <c r="F41" t="n">
-        <v>2.846499919891357</v>
+        <v>56.1077995300293</v>
       </c>
       <c r="G41" t="n">
-        <v>56.1077995300293</v>
+        <v>14.77519989013672</v>
       </c>
       <c r="H41" t="n">
         <v>12.25549983978271</v>
       </c>
       <c r="I41" t="n">
+        <v>2.846499919891357</v>
+      </c>
+      <c r="J41" t="n">
         <v>8.331100463867188</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>39.36230087280273</v>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>0.6876000165939331</v>
       </c>
-      <c r="L41" t="n">
-        <v>14.77519989013672</v>
-      </c>
       <c r="M41" t="n">
-        <v>0.6747363209724426</v>
+        <v>0.6747744083404541</v>
       </c>
       <c r="N41" t="n">
-        <v>0.6665643453598022</v>
+        <v>0.7395117282867432</v>
       </c>
       <c r="O41" t="n">
         <v>32.91079711914062</v>
@@ -3971,10 +3971,10 @@
         <v>12.66474914550781</v>
       </c>
       <c r="U41" t="n">
-        <v>-10.06087303161621</v>
+        <v>-5.988871574401855</v>
       </c>
       <c r="V41" t="n">
-        <v>1.393403053283691</v>
+        <v>1.004614114761353</v>
       </c>
       <c r="W41" t="n">
         <v>18.18318939208984</v>
@@ -3989,10 +3989,10 @@
         <v>53.98015213012695</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.7457977533340454</v>
+        <v>0.7374652624130249</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.1757233887910843</v>
+        <v>0.1341529786586761</v>
       </c>
     </row>
     <row r="42">
@@ -4012,31 +4012,31 @@
         <v>57.54790115356445</v>
       </c>
       <c r="F42" t="n">
-        <v>2.707600116729736</v>
+        <v>56.33229827880859</v>
       </c>
       <c r="G42" t="n">
-        <v>56.33229827880859</v>
+        <v>15.01920032501221</v>
       </c>
       <c r="H42" t="n">
         <v>13.09060001373291</v>
       </c>
       <c r="I42" t="n">
+        <v>2.707600116729736</v>
+      </c>
+      <c r="J42" t="n">
         <v>9.51039981842041</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>40.96789932250977</v>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>0.1802999973297119</v>
       </c>
-      <c r="L42" t="n">
-        <v>15.01920032501221</v>
-      </c>
       <c r="M42" t="n">
-        <v>0.8708535432815552</v>
+        <v>0.8709027171134949</v>
       </c>
       <c r="N42" t="n">
-        <v>0.8768518567085266</v>
+        <v>0.8363984227180481</v>
       </c>
       <c r="O42" t="n">
         <v>38.44563293457031</v>
@@ -4057,10 +4057,10 @@
         <v>15.5726490020752</v>
       </c>
       <c r="U42" t="n">
-        <v>9.8077392578125</v>
+        <v>10.81549549102783</v>
       </c>
       <c r="V42" t="n">
-        <v>1.151919841766357</v>
+        <v>0.8731620311737061</v>
       </c>
       <c r="W42" t="n">
         <v>19.22357940673828</v>
@@ -4075,10 +4075,10 @@
         <v>51.43689727783203</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.9547278881072998</v>
+        <v>0.9408528804779053</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.5196102261543274</v>
+        <v>0.2865641415119171</v>
       </c>
     </row>
     <row r="43">
@@ -4098,31 +4098,31 @@
         <v>57.84310150146484</v>
       </c>
       <c r="F43" t="n">
-        <v>3.473099946975708</v>
+        <v>57.03250122070312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.03250122070312</v>
+        <v>17.71710014343262</v>
       </c>
       <c r="H43" t="n">
         <v>16.6023006439209</v>
       </c>
       <c r="I43" t="n">
+        <v>3.473099946975708</v>
+      </c>
+      <c r="J43" t="n">
         <v>12.1028995513916</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>39.95439910888672</v>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>0.3686000108718872</v>
       </c>
-      <c r="L43" t="n">
-        <v>17.71710014343262</v>
-      </c>
       <c r="M43" t="n">
-        <v>1.465419411659241</v>
+        <v>1.465502142906189</v>
       </c>
       <c r="N43" t="n">
-        <v>1.450814247131348</v>
+        <v>1.210467576980591</v>
       </c>
       <c r="O43" t="n">
         <v>69.81608581542969</v>
@@ -4143,10 +4143,10 @@
         <v>25.32152557373047</v>
       </c>
       <c r="U43" t="n">
-        <v>21.96147537231445</v>
+        <v>7.198110580444336</v>
       </c>
       <c r="V43" t="n">
-        <v>1.358815312385559</v>
+        <v>0.8302960991859436</v>
       </c>
       <c r="W43" t="n">
         <v>23.51797866821289</v>
@@ -4161,10 +4161,10 @@
         <v>57.86696243286133</v>
       </c>
       <c r="AA43" t="n">
-        <v>1.688575863838196</v>
+        <v>1.470710515975952</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.002917372388765216</v>
+        <v>0.09118971228599548</v>
       </c>
     </row>
     <row r="44">
@@ -4184,31 +4184,31 @@
         <v>59.03189849853516</v>
       </c>
       <c r="F44" t="n">
-        <v>6.349199771881104</v>
+        <v>57.85269927978516</v>
       </c>
       <c r="G44" t="n">
-        <v>57.85269927978516</v>
+        <v>27.04590034484863</v>
       </c>
       <c r="H44" t="n">
         <v>19.87619972229004</v>
       </c>
       <c r="I44" t="n">
+        <v>6.349199771881104</v>
+      </c>
+      <c r="J44" t="n">
         <v>12.69250011444092</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>44.61090087890625</v>
       </c>
-      <c r="K44" t="n">
+      <c r="L44" t="n">
         <v>0.5579000115394592</v>
       </c>
-      <c r="L44" t="n">
-        <v>27.04590034484863</v>
-      </c>
       <c r="M44" t="n">
-        <v>1.666574239730835</v>
+        <v>1.666668295860291</v>
       </c>
       <c r="N44" t="n">
-        <v>1.693502068519592</v>
+        <v>1.604824185371399</v>
       </c>
       <c r="O44" t="n">
         <v>26.77117156982422</v>
@@ -4229,10 +4229,10 @@
         <v>24.7995548248291</v>
       </c>
       <c r="U44" t="n">
-        <v>3.595294952392578</v>
+        <v>1.135499000549316</v>
       </c>
       <c r="V44" t="n">
-        <v>1.452787160873413</v>
+        <v>0.8442443609237671</v>
       </c>
       <c r="W44" t="n">
         <v>22.97874641418457</v>
@@ -4247,10 +4247,10 @@
         <v>52.46069717407227</v>
       </c>
       <c r="AA44" t="n">
-        <v>1.946265578269958</v>
+        <v>1.868238687515259</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.4868056774139404</v>
+        <v>0.3276560604572296</v>
       </c>
     </row>
     <row r="45">
@@ -4270,31 +4270,31 @@
         <v>59.96319961547852</v>
       </c>
       <c r="F45" t="n">
-        <v>6.734200000762939</v>
+        <v>58.79880142211914</v>
       </c>
       <c r="G45" t="n">
-        <v>58.79880142211914</v>
+        <v>30.1427001953125</v>
       </c>
       <c r="H45" t="n">
         <v>24.11000061035156</v>
       </c>
       <c r="I45" t="n">
+        <v>6.734200000762939</v>
+      </c>
+      <c r="J45" t="n">
         <v>16.92919921875</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>41.44900131225586</v>
       </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
         <v>0.8029999732971191</v>
       </c>
-      <c r="L45" t="n">
-        <v>30.1427001953125</v>
-      </c>
       <c r="M45" t="n">
-        <v>2.866257905960083</v>
+        <v>2.866419792175293</v>
       </c>
       <c r="N45" t="n">
-        <v>2.893718719482422</v>
+        <v>2.480378389358521</v>
       </c>
       <c r="O45" t="n">
         <v>77.6744384765625</v>
@@ -4315,10 +4315,10 @@
         <v>37.51723861694336</v>
       </c>
       <c r="U45" t="n">
-        <v>20.29630279541016</v>
+        <v>8.404664993286133</v>
       </c>
       <c r="V45" t="n">
-        <v>1.71353006362915</v>
+        <v>0.8423715233802795</v>
       </c>
       <c r="W45" t="n">
         <v>32.1165657043457</v>
@@ -4333,10 +4333,10 @@
         <v>64.46744537353516</v>
       </c>
       <c r="AA45" t="n">
-        <v>3.520025491714478</v>
+        <v>2.973520994186401</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.2794497609138489</v>
+        <v>0.1369857639074326</v>
       </c>
     </row>
     <row r="46">
@@ -4356,31 +4356,31 @@
         <v>59.37020111083984</v>
       </c>
       <c r="F46" t="n">
-        <v>5.267300128936768</v>
+        <v>59.1619987487793</v>
       </c>
       <c r="G46" t="n">
-        <v>59.1619987487793</v>
+        <v>26.17449951171875</v>
       </c>
       <c r="H46" t="n">
         <v>26.21319961547852</v>
       </c>
       <c r="I46" t="n">
+        <v>5.267300128936768</v>
+      </c>
+      <c r="J46" t="n">
         <v>21.00959968566895</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>34.83530044555664</v>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>0.2011999934911728</v>
       </c>
-      <c r="L46" t="n">
-        <v>26.17449951171875</v>
-      </c>
       <c r="M46" t="n">
-        <v>2.538451194763184</v>
+        <v>2.538594484329224</v>
       </c>
       <c r="N46" t="n">
-        <v>2.536355257034302</v>
+        <v>2.566190958023071</v>
       </c>
       <c r="O46" t="n">
         <v>21.42306327819824</v>
@@ -4401,10 +4401,10 @@
         <v>37.08358383178711</v>
       </c>
       <c r="U46" t="n">
-        <v>3.031093835830688</v>
+        <v>6.093684196472168</v>
       </c>
       <c r="V46" t="n">
-        <v>1.725921988487244</v>
+        <v>0.8004499673843384</v>
       </c>
       <c r="W46" t="n">
         <v>34.68054580688477</v>
@@ -4419,10 +4419,10 @@
         <v>100.6178588867188</v>
       </c>
       <c r="AA46" t="n">
-        <v>2.977993965148926</v>
+        <v>2.68565559387207</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.3961258232593536</v>
+        <v>0.3842394053936005</v>
       </c>
     </row>
     <row r="47">
@@ -4442,31 +4442,31 @@
         <v>58.38570022583008</v>
       </c>
       <c r="F47" t="n">
-        <v>6.198200225830078</v>
+        <v>59.18019866943359</v>
       </c>
       <c r="G47" t="n">
-        <v>59.18019866943359</v>
+        <v>26.14349937438965</v>
       </c>
       <c r="H47" t="n">
         <v>27.66060066223145</v>
       </c>
       <c r="I47" t="n">
+        <v>6.198200225830078</v>
+      </c>
+      <c r="J47" t="n">
         <v>24.54800033569336</v>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>36.47100067138672</v>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>0.4330999851226807</v>
       </c>
-      <c r="L47" t="n">
-        <v>26.14349937438965</v>
-      </c>
       <c r="M47" t="n">
-        <v>4.066688060760498</v>
+        <v>4.066917419433594</v>
       </c>
       <c r="N47" t="n">
-        <v>4.157654285430908</v>
+        <v>3.71759033203125</v>
       </c>
       <c r="O47" t="n">
         <v>70.14093780517578</v>
@@ -4487,10 +4487,10 @@
         <v>45.80387878417969</v>
       </c>
       <c r="U47" t="n">
-        <v>12.27316093444824</v>
+        <v>3.320862531661987</v>
       </c>
       <c r="V47" t="n">
-        <v>1.897116661071777</v>
+        <v>0.7872372269630432</v>
       </c>
       <c r="W47" t="n">
         <v>36.04475784301758</v>
@@ -4505,10 +4505,10 @@
         <v>109.5853118896484</v>
       </c>
       <c r="AA47" t="n">
-        <v>5.01146411895752</v>
+        <v>4.277068138122559</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.0217225793749094</v>
+        <v>0.04827706888318062</v>
       </c>
     </row>
     <row r="48">
@@ -4528,31 +4528,31 @@
         <v>59.52199935913086</v>
       </c>
       <c r="F48" t="n">
-        <v>8.714599609375</v>
+        <v>59.31370162963867</v>
       </c>
       <c r="G48" t="n">
-        <v>59.31370162963867</v>
+        <v>31.79059982299805</v>
       </c>
       <c r="H48" t="n">
         <v>28.76560020446777</v>
       </c>
       <c r="I48" t="n">
+        <v>8.714599609375</v>
+      </c>
+      <c r="J48" t="n">
         <v>26.26650047302246</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>35.38150024414062</v>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>0.6916999816894531</v>
       </c>
-      <c r="L48" t="n">
-        <v>31.79059982299805</v>
-      </c>
       <c r="M48" t="n">
-        <v>5.072888374328613</v>
+        <v>5.073174476623535</v>
       </c>
       <c r="N48" t="n">
-        <v>5.120326042175293</v>
+        <v>4.4835524559021</v>
       </c>
       <c r="O48" t="n">
         <v>34.96453475952148</v>
@@ -4573,10 +4573,10 @@
         <v>42.99895477294922</v>
       </c>
       <c r="U48" t="n">
-        <v>19.94466018676758</v>
+        <v>6.436673164367676</v>
       </c>
       <c r="V48" t="n">
-        <v>1.521383881568909</v>
+        <v>0.7471448183059692</v>
       </c>
       <c r="W48" t="n">
         <v>49.91651153564453</v>
@@ -4591,10 +4591,10 @@
         <v>78.96651458740234</v>
       </c>
       <c r="AA48" t="n">
-        <v>6.016701698303223</v>
+        <v>5.185768604278564</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.08297005295753479</v>
+        <v>0.012093685567379</v>
       </c>
     </row>
     <row r="49">
@@ -4614,31 +4614,31 @@
         <v>61.86880111694336</v>
       </c>
       <c r="F49" t="n">
-        <v>10.6117000579834</v>
+        <v>59.93410110473633</v>
       </c>
       <c r="G49" t="n">
-        <v>59.93410110473633</v>
+        <v>38.40599822998047</v>
       </c>
       <c r="H49" t="n">
         <v>31.36709976196289</v>
       </c>
       <c r="I49" t="n">
+        <v>10.6117000579834</v>
+      </c>
+      <c r="J49" t="n">
         <v>27.10610008239746</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>33.53789901733398</v>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>0.921500027179718</v>
       </c>
-      <c r="L49" t="n">
-        <v>38.40599822998047</v>
-      </c>
       <c r="M49" t="n">
-        <v>5.378049850463867</v>
+        <v>5.378353595733643</v>
       </c>
       <c r="N49" t="n">
-        <v>5.517495632171631</v>
+        <v>5.248483657836914</v>
       </c>
       <c r="O49" t="n">
         <v>32.86370086669922</v>
@@ -4659,10 +4659,10 @@
         <v>37.64052581787109</v>
       </c>
       <c r="U49" t="n">
-        <v>-5.502396583557129</v>
+        <v>0.9298494458198547</v>
       </c>
       <c r="V49" t="n">
-        <v>1.651697754859924</v>
+        <v>0.824216902256012</v>
       </c>
       <c r="W49" t="n">
         <v>26.07693672180176</v>
@@ -4677,10 +4677,10 @@
         <v>48.53368377685547</v>
       </c>
       <c r="AA49" t="n">
-        <v>6.588008880615234</v>
+        <v>5.577267169952393</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.03130900859832764</v>
+        <v>0.04597543179988861</v>
       </c>
     </row>
     <row r="50">
@@ -4700,31 +4700,31 @@
         <v>64.48390197753906</v>
       </c>
       <c r="F50" t="n">
-        <v>10.95989990234375</v>
+        <v>61.36199951171875</v>
       </c>
       <c r="G50" t="n">
-        <v>61.36199951171875</v>
+        <v>38.79010009765625</v>
       </c>
       <c r="H50" t="n">
         <v>34.45009994506836</v>
       </c>
       <c r="I50" t="n">
+        <v>10.95989990234375</v>
+      </c>
+      <c r="J50" t="n">
         <v>33.01919937133789</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>32.66139984130859</v>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>0.2824999988079071</v>
       </c>
-      <c r="L50" t="n">
-        <v>38.79010009765625</v>
-      </c>
       <c r="M50" t="n">
-        <v>6.435553550720215</v>
+        <v>6.435916900634766</v>
       </c>
       <c r="N50" t="n">
-        <v>6.381744861602783</v>
+        <v>5.83368444442749</v>
       </c>
       <c r="O50" t="n">
         <v>21.95419502258301</v>
@@ -4745,10 +4745,10 @@
         <v>33.73604583740234</v>
       </c>
       <c r="U50" t="n">
-        <v>13.31915950775146</v>
+        <v>3.238250732421875</v>
       </c>
       <c r="V50" t="n">
-        <v>1.894804716110229</v>
+        <v>0.8667397499084473</v>
       </c>
       <c r="W50" t="n">
         <v>29.23727035522461</v>
@@ -4763,10 +4763,10 @@
         <v>64.085205078125</v>
       </c>
       <c r="AA50" t="n">
-        <v>7.287796974182129</v>
+        <v>6.327141761779785</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.1227470487356186</v>
+        <v>0.01250638905912638</v>
       </c>
     </row>
     <row r="51">
@@ -4786,31 +4786,31 @@
         <v>63.24050140380859</v>
       </c>
       <c r="F51" t="n">
-        <v>9.046099662780762</v>
+        <v>62.41479873657227</v>
       </c>
       <c r="G51" t="n">
-        <v>62.41479873657227</v>
+        <v>35.25460052490234</v>
       </c>
       <c r="H51" t="n">
         <v>36.21279907226562</v>
       </c>
       <c r="I51" t="n">
+        <v>9.046099662780762</v>
+      </c>
+      <c r="J51" t="n">
         <v>33.38769912719727</v>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>31.72640037536621</v>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>0.5248000025749207</v>
       </c>
-      <c r="L51" t="n">
-        <v>35.25460052490234</v>
-      </c>
       <c r="M51" t="n">
-        <v>6.372942447662354</v>
+        <v>6.373301982879639</v>
       </c>
       <c r="N51" t="n">
-        <v>6.393241405487061</v>
+        <v>6.248012065887451</v>
       </c>
       <c r="O51" t="n">
         <v>14.05790996551514</v>
@@ -4831,10 +4831,10 @@
         <v>32.12056732177734</v>
       </c>
       <c r="U51" t="n">
-        <v>-4.198825359344482</v>
+        <v>7.229445934295654</v>
       </c>
       <c r="V51" t="n">
-        <v>1.826878786087036</v>
+        <v>0.7928589582443237</v>
       </c>
       <c r="W51" t="n">
         <v>28.8859691619873</v>
@@ -4849,10 +4849,10 @@
         <v>57.32117462158203</v>
       </c>
       <c r="AA51" t="n">
-        <v>7.141046524047852</v>
+        <v>6.191283702850342</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.3070317208766937</v>
+        <v>0.005447755567729473</v>
       </c>
     </row>
     <row r="52">
@@ -4872,31 +4872,31 @@
         <v>60.38980102539062</v>
       </c>
       <c r="F52" t="n">
-        <v>9.269399642944336</v>
+        <v>62.51010131835938</v>
       </c>
       <c r="G52" t="n">
-        <v>62.51010131835938</v>
+        <v>38.66709899902344</v>
       </c>
       <c r="H52" t="n">
         <v>37.78779983520508</v>
       </c>
       <c r="I52" t="n">
+        <v>9.269399642944336</v>
+      </c>
+      <c r="J52" t="n">
         <v>34.37070083618164</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>30.62170028686523</v>
       </c>
-      <c r="K52" t="n">
+      <c r="L52" t="n">
         <v>0.7639999985694885</v>
       </c>
-      <c r="L52" t="n">
-        <v>38.66709899902344</v>
-      </c>
       <c r="M52" t="n">
-        <v>5.012917041778564</v>
+        <v>5.013199806213379</v>
       </c>
       <c r="N52" t="n">
-        <v>4.948518753051758</v>
+        <v>6.157555103302002</v>
       </c>
       <c r="O52" t="n">
         <v>45.08795166015625</v>
@@ -4917,10 +4917,10 @@
         <v>29.37375640869141</v>
       </c>
       <c r="U52" t="n">
-        <v>-4.314990520477295</v>
+        <v>-1.513556838035583</v>
       </c>
       <c r="V52" t="n">
-        <v>2.416054487228394</v>
+        <v>0.8735753893852234</v>
       </c>
       <c r="W52" t="n">
         <v>22.23286056518555</v>
@@ -4935,10 +4935,10 @@
         <v>44.11603164672852</v>
       </c>
       <c r="AA52" t="n">
-        <v>5.534298419952393</v>
+        <v>5.621480941772461</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.3114092350006104</v>
+        <v>0.3451206684112549</v>
       </c>
     </row>
     <row r="53">
@@ -4958,31 +4958,31 @@
         <v>54.73920059204102</v>
       </c>
       <c r="F53" t="n">
-        <v>4.207900047302246</v>
+        <v>61.20690155029297</v>
       </c>
       <c r="G53" t="n">
-        <v>61.20690155029297</v>
+        <v>25.71430015563965</v>
       </c>
       <c r="H53" t="n">
         <v>35.34479904174805</v>
       </c>
       <c r="I53" t="n">
+        <v>4.207900047302246</v>
+      </c>
+      <c r="J53" t="n">
         <v>31.15410041809082</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>29.71710014343262</v>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>0.9550999999046326</v>
       </c>
-      <c r="L53" t="n">
-        <v>25.71430015563965</v>
-      </c>
       <c r="M53" t="n">
-        <v>3.831321239471436</v>
+        <v>3.831537485122681</v>
       </c>
       <c r="N53" t="n">
-        <v>3.810866832733154</v>
+        <v>3.681391716003418</v>
       </c>
       <c r="O53" t="n">
         <v>40.93284225463867</v>
@@ -5003,10 +5003,10 @@
         <v>25.18388938903809</v>
       </c>
       <c r="U53" t="n">
-        <v>10.18891143798828</v>
+        <v>3.32152533531189</v>
       </c>
       <c r="V53" t="n">
-        <v>2.175304889678955</v>
+        <v>0.9185907244682312</v>
       </c>
       <c r="W53" t="n">
         <v>20.36645698547363</v>
@@ -5021,10 +5021,10 @@
         <v>71.47489166259766</v>
       </c>
       <c r="AA53" t="n">
-        <v>4.066518783569336</v>
+        <v>3.741891145706177</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.0241837352514267</v>
+        <v>0.1444981545209885</v>
       </c>
     </row>
     <row r="54">
@@ -5044,31 +5044,31 @@
         <v>58.37839889526367</v>
       </c>
       <c r="F54" t="n">
-        <v>2.8850998878479</v>
+        <v>59.6421012878418</v>
       </c>
       <c r="G54" t="n">
-        <v>59.6421012878418</v>
+        <v>17.74769973754883</v>
       </c>
       <c r="H54" t="n">
         <v>30.67390060424805</v>
       </c>
       <c r="I54" t="n">
+        <v>2.8850998878479</v>
+      </c>
+      <c r="J54" t="n">
         <v>23.47190093994141</v>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>30.78949928283691</v>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>0.1625999957323074</v>
       </c>
-      <c r="L54" t="n">
-        <v>17.74769973754883</v>
-      </c>
       <c r="M54" t="n">
-        <v>3.975744962692261</v>
+        <v>3.975969314575195</v>
       </c>
       <c r="N54" t="n">
-        <v>3.968175172805786</v>
+        <v>4.28258752822876</v>
       </c>
       <c r="O54" t="n">
         <v>31.86823654174805</v>
@@ -5089,10 +5089,10 @@
         <v>32.32462310791016</v>
       </c>
       <c r="U54" t="n">
-        <v>-0.403119832277298</v>
+        <v>6.479698657989502</v>
       </c>
       <c r="V54" t="n">
-        <v>1.571992635726929</v>
+        <v>0.7954997420310974</v>
       </c>
       <c r="W54" t="n">
         <v>19.79658508300781</v>
@@ -5107,10 +5107,10 @@
         <v>64.61428070068359</v>
       </c>
       <c r="AA54" t="n">
-        <v>4.397934913635254</v>
+        <v>3.958353996276855</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.1558133512735367</v>
+        <v>0.01730692945420742</v>
       </c>
     </row>
     <row r="55">
@@ -5130,31 +5130,31 @@
         <v>59.75180053710938</v>
       </c>
       <c r="F55" t="n">
-        <v>3.833899974822998</v>
+        <v>58.56650161743164</v>
       </c>
       <c r="G55" t="n">
-        <v>58.56650161743164</v>
+        <v>21.40360069274902</v>
       </c>
       <c r="H55" t="n">
         <v>26.93180084228516</v>
       </c>
       <c r="I55" t="n">
+        <v>3.833899974822998</v>
+      </c>
+      <c r="J55" t="n">
         <v>18.56509971618652</v>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>30.04400062561035</v>
       </c>
-      <c r="K55" t="n">
+      <c r="L55" t="n">
         <v>0.3420000076293945</v>
       </c>
-      <c r="L55" t="n">
-        <v>21.40360069274902</v>
-      </c>
       <c r="M55" t="n">
-        <v>3.696527242660522</v>
+        <v>3.696735858917236</v>
       </c>
       <c r="N55" t="n">
-        <v>3.712677955627441</v>
+        <v>3.889847040176392</v>
       </c>
       <c r="O55" t="n">
         <v>29.04050445556641</v>
@@ -5175,10 +5175,10 @@
         <v>29.79313659667969</v>
       </c>
       <c r="U55" t="n">
-        <v>0.2084358483552933</v>
+        <v>1.685774803161621</v>
       </c>
       <c r="V55" t="n">
-        <v>1.613913178443909</v>
+        <v>0.809237003326416</v>
       </c>
       <c r="W55" t="n">
         <v>20.56959915161133</v>
@@ -5193,10 +5193,10 @@
         <v>63.62434768676758</v>
       </c>
       <c r="AA55" t="n">
-        <v>4.090659618377686</v>
+        <v>3.619504451751709</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.2718475461006165</v>
+        <v>0.263690173625946</v>
       </c>
     </row>
     <row r="56">
@@ -5216,31 +5216,31 @@
         <v>63.56999969482422</v>
       </c>
       <c r="F56" t="n">
-        <v>5.878699779510498</v>
+        <v>59.49290084838867</v>
       </c>
       <c r="G56" t="n">
-        <v>59.49290084838867</v>
+        <v>29.82749938964844</v>
       </c>
       <c r="H56" t="n">
         <v>24.06669998168945</v>
       </c>
       <c r="I56" t="n">
+        <v>5.878699779510498</v>
+      </c>
+      <c r="J56" t="n">
         <v>15.24979972839355</v>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>29.07019996643066</v>
       </c>
-      <c r="K56" t="n">
+      <c r="L56" t="n">
         <v>0.5368999838829041</v>
       </c>
-      <c r="L56" t="n">
-        <v>29.82749938964844</v>
-      </c>
       <c r="M56" t="n">
-        <v>5.217867374420166</v>
+        <v>5.218161582946777</v>
       </c>
       <c r="N56" t="n">
-        <v>5.202695369720459</v>
+        <v>4.57393217086792</v>
       </c>
       <c r="O56" t="n">
         <v>43.09703063964844</v>
@@ -5261,10 +5261,10 @@
         <v>30.61313247680664</v>
       </c>
       <c r="U56" t="n">
-        <v>20.26848793029785</v>
+        <v>10.5139102935791</v>
       </c>
       <c r="V56" t="n">
-        <v>1.278793334960938</v>
+        <v>0.787173867225647</v>
       </c>
       <c r="W56" t="n">
         <v>28.40644454956055</v>
@@ -5279,10 +5279,10 @@
         <v>108.9374084472656</v>
       </c>
       <c r="AA56" t="n">
-        <v>5.595276355743408</v>
+        <v>5.132796764373779</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.2084612846374512</v>
+        <v>0.1333748549222946</v>
       </c>
     </row>
     <row r="57">
@@ -5302,31 +5302,31 @@
         <v>64.89530181884766</v>
       </c>
       <c r="F57" t="n">
-        <v>5.735799789428711</v>
+        <v>61.98939895629883</v>
       </c>
       <c r="G57" t="n">
-        <v>61.98939895629883</v>
+        <v>30.59580039978027</v>
       </c>
       <c r="H57" t="n">
         <v>25.60910034179688</v>
       </c>
       <c r="I57" t="n">
+        <v>5.735799789428711</v>
+      </c>
+      <c r="J57" t="n">
         <v>16.14780044555664</v>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>29.51779937744141</v>
       </c>
-      <c r="K57" t="n">
+      <c r="L57" t="n">
         <v>0.7134000062942505</v>
       </c>
-      <c r="L57" t="n">
-        <v>30.59580039978027</v>
-      </c>
       <c r="M57" t="n">
-        <v>6.739771366119385</v>
+        <v>6.740151405334473</v>
       </c>
       <c r="N57" t="n">
-        <v>6.761674880981445</v>
+        <v>5.8173828125</v>
       </c>
       <c r="O57" t="n">
         <v>35.0788459777832</v>
@@ -5347,10 +5347,10 @@
         <v>34.80725860595703</v>
       </c>
       <c r="U57" t="n">
-        <v>19.06591987609863</v>
+        <v>11.72311878204346</v>
       </c>
       <c r="V57" t="n">
-        <v>1.313562750816345</v>
+        <v>0.783413290977478</v>
       </c>
       <c r="W57" t="n">
         <v>44.72676086425781</v>
@@ -5365,10 +5365,10 @@
         <v>169.4155120849609</v>
       </c>
       <c r="AA57" t="n">
-        <v>7.330367088317871</v>
+        <v>6.41199779510498</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.2057982087135315</v>
+        <v>0.07363478094339371</v>
       </c>
     </row>
     <row r="58">
@@ -5388,31 +5388,31 @@
         <v>65.06490325927734</v>
       </c>
       <c r="F58" t="n">
-        <v>4.520699977874756</v>
+        <v>63.47430038452148</v>
       </c>
       <c r="G58" t="n">
-        <v>63.47430038452148</v>
+        <v>29.7726993560791</v>
       </c>
       <c r="H58" t="n">
         <v>28.17970085144043</v>
       </c>
       <c r="I58" t="n">
+        <v>4.520699977874756</v>
+      </c>
+      <c r="J58" t="n">
         <v>14.27280044555664</v>
       </c>
-      <c r="J58" t="n">
+      <c r="K58" t="n">
         <v>43.66989898681641</v>
       </c>
-      <c r="K58" t="n">
+      <c r="L58" t="n">
         <v>0.1518000066280365</v>
       </c>
-      <c r="L58" t="n">
-        <v>29.7726993560791</v>
-      </c>
       <c r="M58" t="n">
-        <v>8.741938591003418</v>
+        <v>8.742431640625</v>
       </c>
       <c r="N58" t="n">
-        <v>8.838943481445312</v>
+        <v>6.884143829345703</v>
       </c>
       <c r="O58" t="n">
         <v>67.11992645263672</v>
@@ -5433,10 +5433,10 @@
         <v>43.61033248901367</v>
       </c>
       <c r="U58" t="n">
-        <v>-1.619997620582581</v>
+        <v>-8.070075988769531</v>
       </c>
       <c r="V58" t="n">
-        <v>1.957025647163391</v>
+        <v>1.354955673217773</v>
       </c>
       <c r="W58" t="n">
         <v>33.96974563598633</v>
@@ -5451,10 +5451,10 @@
         <v>161.3642578125</v>
       </c>
       <c r="AA58" t="n">
-        <v>10.66326236724854</v>
+        <v>8.127564430236816</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.1402570605278015</v>
+        <v>0.2189145982265472</v>
       </c>
     </row>
     <row r="59">
@@ -5474,31 +5474,31 @@
         <v>58.84640121459961</v>
       </c>
       <c r="F59" t="n">
-        <v>2.568399906158447</v>
+        <v>62.839599609375</v>
       </c>
       <c r="G59" t="n">
-        <v>62.839599609375</v>
+        <v>16.0890007019043</v>
       </c>
       <c r="H59" t="n">
         <v>25.93190002441406</v>
       </c>
       <c r="I59" t="n">
+        <v>2.568399906158447</v>
+      </c>
+      <c r="J59" t="n">
         <v>13.45510005950928</v>
       </c>
-      <c r="J59" t="n">
+      <c r="K59" t="n">
         <v>44.74190139770508</v>
       </c>
-      <c r="K59" t="n">
+      <c r="L59" t="n">
         <v>0.3269000053405762</v>
       </c>
-      <c r="L59" t="n">
-        <v>16.0890007019043</v>
-      </c>
       <c r="M59" t="n">
-        <v>12.09793949127197</v>
+        <v>12.09862232208252</v>
       </c>
       <c r="N59" t="n">
-        <v>12.158860206604</v>
+        <v>9.906806945800781</v>
       </c>
       <c r="O59" t="n">
         <v>50.22243118286133</v>
@@ -5519,10 +5519,10 @@
         <v>53.67822647094727</v>
       </c>
       <c r="U59" t="n">
-        <v>16.30765151977539</v>
+        <v>17.45014381408691</v>
       </c>
       <c r="V59" t="n">
-        <v>1.523417234420776</v>
+        <v>1.071881532669067</v>
       </c>
       <c r="W59" t="n">
         <v>44.93438720703125</v>
@@ -5537,10 +5537,10 @@
         <v>174.9340362548828</v>
       </c>
       <c r="AA59" t="n">
-        <v>14.54954051971436</v>
+        <v>11.32740211486816</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.08006430417299271</v>
+        <v>0.1578092724084854</v>
       </c>
     </row>
     <row r="60">
@@ -5560,31 +5560,31 @@
         <v>62.63219833374023</v>
       </c>
       <c r="F60" t="n">
-        <v>5.132400035858154</v>
+        <v>62.63109970092773</v>
       </c>
       <c r="G60" t="n">
-        <v>62.63109970092773</v>
+        <v>28.26910018920898</v>
       </c>
       <c r="H60" t="n">
         <v>25.89159965515137</v>
       </c>
       <c r="I60" t="n">
+        <v>5.132400035858154</v>
+      </c>
+      <c r="J60" t="n">
         <v>14.23309993743896</v>
       </c>
-      <c r="J60" t="n">
+      <c r="K60" t="n">
         <v>42.95600128173828</v>
       </c>
-      <c r="K60" t="n">
+      <c r="L60" t="n">
         <v>0.5281999707221985</v>
       </c>
-      <c r="L60" t="n">
-        <v>28.26910018920898</v>
-      </c>
       <c r="M60" t="n">
-        <v>13.38788223266602</v>
+        <v>13.38863754272461</v>
       </c>
       <c r="N60" t="n">
-        <v>13.38464164733887</v>
+        <v>13.11497116088867</v>
       </c>
       <c r="O60" t="n">
         <v>24.6591911315918</v>
@@ -5605,10 +5605,10 @@
         <v>63.6965217590332</v>
       </c>
       <c r="U60" t="n">
-        <v>9.618119239807129</v>
+        <v>7.578149795532227</v>
       </c>
       <c r="V60" t="n">
-        <v>1.308394908905029</v>
+        <v>0.8618255257606506</v>
       </c>
       <c r="W60" t="n">
         <v>52.97388076782227</v>
@@ -5623,10 +5623,10 @@
         <v>157.1539459228516</v>
       </c>
       <c r="AA60" t="n">
-        <v>15.70012855529785</v>
+        <v>13.88563442230225</v>
       </c>
       <c r="AB60" t="n">
-        <v>0.09038092195987701</v>
+        <v>0.02771978266537189</v>
       </c>
     </row>
     <row r="61">
@@ -5646,31 +5646,31 @@
         <v>63.10210037231445</v>
       </c>
       <c r="F61" t="n">
-        <v>5.234200000762939</v>
+        <v>62.34479904174805</v>
       </c>
       <c r="G61" t="n">
-        <v>62.34479904174805</v>
+        <v>29.12249946594238</v>
       </c>
       <c r="H61" t="n">
         <v>25.97900009155273</v>
       </c>
       <c r="I61" t="n">
+        <v>5.234200000762939</v>
+      </c>
+      <c r="J61" t="n">
         <v>15.04640007019043</v>
       </c>
-      <c r="J61" t="n">
+      <c r="K61" t="n">
         <v>41.32540130615234</v>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>0.7232999801635742</v>
       </c>
-      <c r="L61" t="n">
-        <v>29.12249946594238</v>
-      </c>
       <c r="M61" t="n">
-        <v>14.45914554595947</v>
+        <v>14.45996189117432</v>
       </c>
       <c r="N61" t="n">
-        <v>14.28113651275635</v>
+        <v>13.50072765350342</v>
       </c>
       <c r="O61" t="n">
         <v>20.76643753051758</v>
@@ -5691,10 +5691,10 @@
         <v>61.66184234619141</v>
       </c>
       <c r="U61" t="n">
-        <v>23.12192916870117</v>
+        <v>12.29691505432129</v>
       </c>
       <c r="V61" t="n">
-        <v>1.244861721992493</v>
+        <v>0.8834088444709778</v>
       </c>
       <c r="W61" t="n">
         <v>57.58232498168945</v>
@@ -5709,10 +5709,10 @@
         <v>146.4213256835938</v>
       </c>
       <c r="AA61" t="n">
-        <v>15.99979686737061</v>
+        <v>14.40871143341064</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.02272599004209042</v>
+        <v>0.0253854263573885</v>
       </c>
     </row>
     <row r="62">
@@ -5732,31 +5732,31 @@
         <v>64.10530090332031</v>
       </c>
       <c r="F62" t="n">
-        <v>6.417500019073486</v>
+        <v>62.42729949951172</v>
       </c>
       <c r="G62" t="n">
-        <v>62.42729949951172</v>
+        <v>33.77500152587891</v>
       </c>
       <c r="H62" t="n">
         <v>27.66410064697266</v>
       </c>
       <c r="I62" t="n">
+        <v>6.417500019073486</v>
+      </c>
+      <c r="J62" t="n">
         <v>17.29770088195801</v>
       </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
         <v>39.03749847412109</v>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>0.1899999976158142</v>
       </c>
-      <c r="L62" t="n">
-        <v>33.77500152587891</v>
-      </c>
       <c r="M62" t="n">
-        <v>15.66224765777588</v>
+        <v>15.66313171386719</v>
       </c>
       <c r="N62" t="n">
-        <v>15.63618564605713</v>
+        <v>14.04294013977051</v>
       </c>
       <c r="O62" t="n">
         <v>32.90373229980469</v>
@@ -5777,10 +5777,10 @@
         <v>57.64608764648438</v>
       </c>
       <c r="U62" t="n">
-        <v>2.57368803024292</v>
+        <v>9.190226554870605</v>
       </c>
       <c r="V62" t="n">
-        <v>1.308760046958923</v>
+        <v>0.8264105916023254</v>
       </c>
       <c r="W62" t="n">
         <v>56.64846801757812</v>
@@ -5795,10 +5795,10 @@
         <v>137.5481567382812</v>
       </c>
       <c r="AA62" t="n">
-        <v>17.7812442779541</v>
+        <v>15.43842697143555</v>
       </c>
       <c r="AB62" t="n">
-        <v>0.08018960058689117</v>
+        <v>0.2234967052936554</v>
       </c>
     </row>
     <row r="63">
@@ -5818,31 +5818,31 @@
         <v>64.77639770507812</v>
       </c>
       <c r="F63" t="n">
-        <v>6.836999893188477</v>
+        <v>63.75759887695312</v>
       </c>
       <c r="G63" t="n">
-        <v>63.75759887695312</v>
+        <v>36.48379898071289</v>
       </c>
       <c r="H63" t="n">
         <v>32.32410049438477</v>
       </c>
       <c r="I63" t="n">
+        <v>6.836999893188477</v>
+      </c>
+      <c r="J63" t="n">
         <v>18.31310081481934</v>
       </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
         <v>45.2859001159668</v>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>0.3607999980449677</v>
       </c>
-      <c r="L63" t="n">
-        <v>36.48379898071289</v>
-      </c>
       <c r="M63" t="n">
-        <v>18.99856948852539</v>
+        <v>18.99964332580566</v>
       </c>
       <c r="N63" t="n">
-        <v>19.20711517333984</v>
+        <v>18.88886451721191</v>
       </c>
       <c r="O63" t="n">
         <v>34.63619232177734</v>
@@ -5863,10 +5863,10 @@
         <v>60.0451545715332</v>
       </c>
       <c r="U63" t="n">
-        <v>8.693374633789062</v>
+        <v>7.16742467880249</v>
       </c>
       <c r="V63" t="n">
-        <v>1.242478251457214</v>
+        <v>0.7078967690467834</v>
       </c>
       <c r="W63" t="n">
         <v>57.83238220214844</v>
@@ -5881,10 +5881,10 @@
         <v>129.8017120361328</v>
       </c>
       <c r="AA63" t="n">
-        <v>20.91397094726562</v>
+        <v>19.86754035949707</v>
       </c>
       <c r="AB63" t="n">
-        <v>0.4187901020050049</v>
+        <v>0.1716831028461456</v>
       </c>
     </row>
     <row r="64">
@@ -5904,31 +5904,31 @@
         <v>65.19779968261719</v>
       </c>
       <c r="F64" t="n">
-        <v>6.215799808502197</v>
+        <v>64.39810180664062</v>
       </c>
       <c r="G64" t="n">
-        <v>64.39810180664062</v>
+        <v>34.68960189819336</v>
       </c>
       <c r="H64" t="n">
         <v>33.80569839477539</v>
       </c>
       <c r="I64" t="n">
+        <v>6.215799808502197</v>
+      </c>
+      <c r="J64" t="n">
         <v>20.19589996337891</v>
       </c>
-      <c r="J64" t="n">
+      <c r="K64" t="n">
         <v>41.43040084838867</v>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>0.5551999807357788</v>
       </c>
-      <c r="L64" t="n">
-        <v>34.68960189819336</v>
-      </c>
       <c r="M64" t="n">
-        <v>29.20247650146484</v>
+        <v>29.20412445068359</v>
       </c>
       <c r="N64" t="n">
-        <v>29.67253494262695</v>
+        <v>23.27846145629883</v>
       </c>
       <c r="O64" t="n">
         <v>69.65615844726562</v>
@@ -5949,10 +5949,10 @@
         <v>89.84586334228516</v>
       </c>
       <c r="U64" t="n">
-        <v>28.02746772766113</v>
+        <v>8.276525497436523</v>
       </c>
       <c r="V64" t="n">
-        <v>1.164790034294128</v>
+        <v>0.694383442401886</v>
       </c>
       <c r="W64" t="n">
         <v>72.03256988525391</v>
@@ -5967,10 +5967,10 @@
         <v>132.8939666748047</v>
       </c>
       <c r="AA64" t="n">
-        <v>33.14128875732422</v>
+        <v>25.3658504486084</v>
       </c>
       <c r="AB64" t="n">
-        <v>0.2018043696880341</v>
+        <v>0.102838546037674</v>
       </c>
     </row>
     <row r="65">
@@ -5990,31 +5990,31 @@
         <v>65.40630340576172</v>
       </c>
       <c r="F65" t="n">
-        <v>7.080999851226807</v>
+        <v>64.92900085449219</v>
       </c>
       <c r="G65" t="n">
-        <v>64.92900085449219</v>
+        <v>39.29090118408203</v>
       </c>
       <c r="H65" t="n">
         <v>36.2338981628418</v>
       </c>
       <c r="I65" t="n">
+        <v>7.080999851226807</v>
+      </c>
+      <c r="J65" t="n">
         <v>22.06979942321777</v>
       </c>
-      <c r="J65" t="n">
+      <c r="K65" t="n">
         <v>39.77410125732422</v>
       </c>
-      <c r="K65" t="n">
+      <c r="L65" t="n">
         <v>0.7376000285148621</v>
       </c>
-      <c r="L65" t="n">
-        <v>39.29090118408203</v>
-      </c>
       <c r="M65" t="n">
-        <v>26.46121788024902</v>
+        <v>26.46271133422852</v>
       </c>
       <c r="N65" t="n">
-        <v>26.45323181152344</v>
+        <v>27.97443771362305</v>
       </c>
       <c r="O65" t="n">
         <v>45.54660797119141</v>
@@ -6035,10 +6035,10 @@
         <v>72.76844787597656</v>
       </c>
       <c r="U65" t="n">
-        <v>-7.27015209197998</v>
+        <v>-2.922232866287231</v>
       </c>
       <c r="V65" t="n">
-        <v>1.550160884857178</v>
+        <v>0.8228808641433716</v>
       </c>
       <c r="W65" t="n">
         <v>32.31200408935547</v>
@@ -6053,10 +6053,10 @@
         <v>95.53680419921875</v>
       </c>
       <c r="AA65" t="n">
-        <v>32.46078109741211</v>
+        <v>25.72680282592773</v>
       </c>
       <c r="AB65" t="n">
-        <v>0.4905787110328674</v>
+        <v>0.1416989862918854</v>
       </c>
     </row>
     <row r="66">
@@ -6076,31 +6076,31 @@
         <v>65.52850341796875</v>
       </c>
       <c r="F66" t="n">
-        <v>3.619699954986572</v>
+        <v>65.25509643554688</v>
       </c>
       <c r="G66" t="n">
-        <v>65.25509643554688</v>
+        <v>19.5221996307373</v>
       </c>
       <c r="H66" t="n">
         <v>32.01649856567383</v>
       </c>
       <c r="I66" t="n">
+        <v>3.619699954986572</v>
+      </c>
+      <c r="J66" t="n">
         <v>20.9192008972168</v>
       </c>
-      <c r="J66" t="n">
+      <c r="K66" t="n">
         <v>41.785400390625</v>
       </c>
-      <c r="K66" t="n">
+      <c r="L66" t="n">
         <v>0.1853999942541122</v>
       </c>
-      <c r="L66" t="n">
-        <v>19.5221996307373</v>
-      </c>
       <c r="M66" t="n">
-        <v>16.94601058959961</v>
+        <v>16.94696807861328</v>
       </c>
       <c r="N66" t="n">
-        <v>16.53621292114258</v>
+        <v>22.08134078979492</v>
       </c>
       <c r="O66" t="n">
         <v>50.50492477416992</v>
@@ -6121,10 +6121,10 @@
         <v>47.52621459960938</v>
       </c>
       <c r="U66" t="n">
-        <v>-18.64487648010254</v>
+        <v>-8.287980079650879</v>
       </c>
       <c r="V66" t="n">
-        <v>1.65090537071228</v>
+        <v>0.8999625444412231</v>
       </c>
       <c r="W66" t="n">
         <v>27.63379096984863</v>
@@ -6139,10 +6139,10 @@
         <v>97.18567657470703</v>
       </c>
       <c r="AA66" t="n">
-        <v>20.82306289672852</v>
+        <v>19.94115829467773</v>
       </c>
       <c r="AB66" t="n">
-        <v>0.1751571446657181</v>
+        <v>0.1390471011400223</v>
       </c>
     </row>
     <row r="67">
@@ -6162,31 +6162,31 @@
         <v>43.48149871826172</v>
       </c>
       <c r="F67" t="n">
-        <v>1.479300022125244</v>
+        <v>60.45130157470703</v>
       </c>
       <c r="G67" t="n">
-        <v>60.45130157470703</v>
+        <v>9.785200119018555</v>
       </c>
       <c r="H67" t="n">
         <v>26.03070068359375</v>
       </c>
       <c r="I67" t="n">
+        <v>1.479300022125244</v>
+      </c>
+      <c r="J67" t="n">
         <v>17.80520057678223</v>
       </c>
-      <c r="J67" t="n">
+      <c r="K67" t="n">
         <v>45.13980102539062</v>
       </c>
-      <c r="K67" t="n">
+      <c r="L67" t="n">
         <v>0.3420000076293945</v>
       </c>
-      <c r="L67" t="n">
-        <v>9.785200119018555</v>
-      </c>
       <c r="M67" t="n">
-        <v>17.19622421264648</v>
+        <v>17.19719505310059</v>
       </c>
       <c r="N67" t="n">
-        <v>17.17575454711914</v>
+        <v>17.16839790344238</v>
       </c>
       <c r="O67" t="n">
         <v>34.42508697509766</v>
@@ -6207,10 +6207,10 @@
         <v>57.00384140014648</v>
       </c>
       <c r="U67" t="n">
-        <v>1.887618780136108</v>
+        <v>7.45095682144165</v>
       </c>
       <c r="V67" t="n">
-        <v>1.514662504196167</v>
+        <v>0.7944854497909546</v>
       </c>
       <c r="W67" t="n">
         <v>30.1789608001709</v>
@@ -6225,10 +6225,10 @@
         <v>104.2951431274414</v>
       </c>
       <c r="AA67" t="n">
-        <v>18.86965751647949</v>
+        <v>16.81292533874512</v>
       </c>
       <c r="AB67" t="n">
-        <v>0.1378510445356369</v>
+        <v>0.1902825534343719</v>
       </c>
     </row>
     <row r="68">
@@ -6248,31 +6248,31 @@
         <v>53.56600189208984</v>
       </c>
       <c r="F68" t="n">
-        <v>1.619699954986572</v>
+        <v>57.8380012512207</v>
       </c>
       <c r="G68" t="n">
-        <v>57.8380012512207</v>
+        <v>11.46520042419434</v>
       </c>
       <c r="H68" t="n">
         <v>20.85350036621094</v>
       </c>
       <c r="I68" t="n">
+        <v>1.619699954986572</v>
+      </c>
+      <c r="J68" t="n">
         <v>14.71300029754639</v>
       </c>
-      <c r="J68" t="n">
+      <c r="K68" t="n">
         <v>47.27080154418945</v>
       </c>
-      <c r="K68" t="n">
+      <c r="L68" t="n">
         <v>0.4941999912261963</v>
       </c>
-      <c r="L68" t="n">
-        <v>11.46520042419434</v>
-      </c>
       <c r="M68" t="n">
-        <v>15.89090824127197</v>
+        <v>15.89180469512939</v>
       </c>
       <c r="N68" t="n">
-        <v>16.26845550537109</v>
+        <v>13.61371898651123</v>
       </c>
       <c r="O68" t="n">
         <v>41.50391006469727</v>
@@ -6293,10 +6293,10 @@
         <v>61.64939498901367</v>
       </c>
       <c r="U68" t="n">
-        <v>-5.942763805389404</v>
+        <v>-1.93842887878418</v>
       </c>
       <c r="V68" t="n">
-        <v>1.58355438709259</v>
+        <v>0.8588245511054993</v>
       </c>
       <c r="W68" t="n">
         <v>26.497802734375</v>
@@ -6311,10 +6311,10 @@
         <v>125.3117828369141</v>
       </c>
       <c r="AA68" t="n">
-        <v>17.57205009460449</v>
+        <v>14.33903503417969</v>
       </c>
       <c r="AB68" t="n">
-        <v>0.1771503090858459</v>
+        <v>0.2346735447645187</v>
       </c>
     </row>
     <row r="69">
@@ -6334,31 +6334,31 @@
         <v>63.34489822387695</v>
       </c>
       <c r="F69" t="n">
-        <v>3.462699890136719</v>
+        <v>56.92890167236328</v>
       </c>
       <c r="G69" t="n">
-        <v>56.92890167236328</v>
+        <v>23.36800003051758</v>
       </c>
       <c r="H69" t="n">
         <v>16.19339942932129</v>
       </c>
       <c r="I69" t="n">
+        <v>3.462699890136719</v>
+      </c>
+      <c r="J69" t="n">
         <v>10.60659980773926</v>
       </c>
-      <c r="J69" t="n">
+      <c r="K69" t="n">
         <v>46.33330154418945</v>
       </c>
-      <c r="K69" t="n">
+      <c r="L69" t="n">
         <v>0.6319000124931335</v>
       </c>
-      <c r="L69" t="n">
-        <v>23.36800003051758</v>
-      </c>
       <c r="M69" t="n">
-        <v>20.73439788818359</v>
+        <v>20.73556900024414</v>
       </c>
       <c r="N69" t="n">
-        <v>20.68494415283203</v>
+        <v>17.70402717590332</v>
       </c>
       <c r="O69" t="n">
         <v>55.00506591796875</v>
@@ -6379,10 +6379,10 @@
         <v>90.50672149658203</v>
       </c>
       <c r="U69" t="n">
-        <v>10.0908374786377</v>
+        <v>1.427880048751831</v>
       </c>
       <c r="V69" t="n">
-        <v>1.261829376220703</v>
+        <v>0.7786861658096313</v>
       </c>
       <c r="W69" t="n">
         <v>19.37079620361328</v>
@@ -6397,10 +6397,10 @@
         <v>121.9122314453125</v>
       </c>
       <c r="AA69" t="n">
-        <v>23.06191825866699</v>
+        <v>19.72215843200684</v>
       </c>
       <c r="AB69" t="n">
-        <v>0.3263979554176331</v>
+        <v>0.3486293256282806</v>
       </c>
     </row>
     <row r="70">
@@ -6420,31 +6420,31 @@
         <v>64.62740325927734</v>
       </c>
       <c r="F70" t="n">
-        <v>4.770999908447266</v>
+        <v>56.31420135498047</v>
       </c>
       <c r="G70" t="n">
-        <v>56.31420135498047</v>
+        <v>28.40660095214844</v>
       </c>
       <c r="H70" t="n">
         <v>18.52149963378906</v>
       </c>
       <c r="I70" t="n">
+        <v>4.770999908447266</v>
+      </c>
+      <c r="J70" t="n">
         <v>10.7805004119873</v>
       </c>
-      <c r="J70" t="n">
+      <c r="K70" t="n">
         <v>44.84930038452148</v>
       </c>
-      <c r="K70" t="n">
+      <c r="L70" t="n">
         <v>0.1679999977350235</v>
       </c>
-      <c r="L70" t="n">
-        <v>28.40660095214844</v>
-      </c>
       <c r="M70" t="n">
-        <v>30.51433944702148</v>
+        <v>30.51606178283691</v>
       </c>
       <c r="N70" t="n">
-        <v>30.58928108215332</v>
+        <v>26.59788131713867</v>
       </c>
       <c r="O70" t="n">
         <v>55.25251388549805</v>
@@ -6465,10 +6465,10 @@
         <v>110.5832901000977</v>
       </c>
       <c r="U70" t="n">
-        <v>27.2569580078125</v>
+        <v>6.192582130432129</v>
       </c>
       <c r="V70" t="n">
-        <v>1.294766068458557</v>
+        <v>0.8132096529006958</v>
       </c>
       <c r="W70" t="n">
         <v>18.02923202514648</v>
@@ -6483,10 +6483,10 @@
         <v>109.2854232788086</v>
       </c>
       <c r="AA70" t="n">
-        <v>33.99406814575195</v>
+        <v>28.79126167297363</v>
       </c>
       <c r="AB70" t="n">
-        <v>0.3637925088405609</v>
+        <v>0.4774529635906219</v>
       </c>
     </row>
     <row r="71">
@@ -6506,31 +6506,31 @@
         <v>70.05259704589844</v>
       </c>
       <c r="F71" t="n">
-        <v>13.16390037536621</v>
+        <v>64.62470245361328</v>
       </c>
       <c r="G71" t="n">
-        <v>64.62470245361328</v>
+        <v>45.81330108642578</v>
       </c>
       <c r="H71" t="n">
         <v>31.59630012512207</v>
       </c>
       <c r="I71" t="n">
+        <v>13.16390037536621</v>
+      </c>
+      <c r="J71" t="n">
         <v>20.83749961853027</v>
       </c>
-      <c r="J71" t="n">
+      <c r="K71" t="n">
         <v>44.50410079956055</v>
       </c>
-      <c r="K71" t="n">
+      <c r="L71" t="n">
         <v>0.4562000036239624</v>
       </c>
-      <c r="L71" t="n">
-        <v>45.81330108642578</v>
-      </c>
       <c r="M71" t="n">
-        <v>47.08436584472656</v>
+        <v>47.0870246887207</v>
       </c>
       <c r="N71" t="n">
-        <v>46.36085510253906</v>
+        <v>42.53773498535156</v>
       </c>
       <c r="O71" t="n">
         <v>59.91262435913086</v>
@@ -6551,10 +6551,10 @@
         <v>97.80361175537109</v>
       </c>
       <c r="U71" t="n">
-        <v>32.86313247680664</v>
+        <v>9.187602996826172</v>
       </c>
       <c r="V71" t="n">
-        <v>1.38703441619873</v>
+        <v>0.8075680136680603</v>
       </c>
       <c r="W71" t="n">
         <v>20.33728408813477</v>
@@ -6569,10 +6569,10 @@
         <v>108.4380722045898</v>
       </c>
       <c r="AA71" t="n">
-        <v>55.53297424316406</v>
+        <v>46.35427856445312</v>
       </c>
       <c r="AB71" t="n">
-        <v>0.09698793292045593</v>
+        <v>0.02564630657434464</v>
       </c>
     </row>
     <row r="72">
@@ -6592,31 +6592,31 @@
         <v>73.95140075683594</v>
       </c>
       <c r="F72" t="n">
-        <v>17.82589912414551</v>
+        <v>69.85289764404297</v>
       </c>
       <c r="G72" t="n">
-        <v>69.85289764404297</v>
+        <v>51.0098991394043</v>
       </c>
       <c r="H72" t="n">
         <v>42.09719848632812</v>
       </c>
       <c r="I72" t="n">
+        <v>17.82589912414551</v>
+      </c>
+      <c r="J72" t="n">
         <v>34.88399887084961</v>
       </c>
-      <c r="J72" t="n">
+      <c r="K72" t="n">
         <v>38.56650161743164</v>
       </c>
-      <c r="K72" t="n">
+      <c r="L72" t="n">
         <v>0.8144000172615051</v>
       </c>
-      <c r="L72" t="n">
-        <v>51.0098991394043</v>
-      </c>
       <c r="M72" t="n">
-        <v>49.91458129882812</v>
+        <v>49.91739654541016</v>
       </c>
       <c r="N72" t="n">
-        <v>50.14694595336914</v>
+        <v>45.16546249389648</v>
       </c>
       <c r="O72" t="n">
         <v>24.78523826599121</v>
@@ -6637,10 +6637,10 @@
         <v>65.48207092285156</v>
       </c>
       <c r="U72" t="n">
-        <v>10.7550630569458</v>
+        <v>5.011663436889648</v>
       </c>
       <c r="V72" t="n">
-        <v>1.227290153503418</v>
+        <v>0.7957087755203247</v>
       </c>
       <c r="W72" t="n">
         <v>22.95810317993164</v>
@@ -6655,10 +6655,10 @@
         <v>98.06657409667969</v>
       </c>
       <c r="AA72" t="n">
-        <v>62.50639343261719</v>
+        <v>46.10018157958984</v>
       </c>
       <c r="AB72" t="n">
-        <v>0.09473103284835815</v>
+        <v>0.2079124301671982</v>
       </c>
     </row>
     <row r="73">
@@ -6678,31 +6678,31 @@
         <v>75.96710205078125</v>
       </c>
       <c r="F73" t="n">
-        <v>20.49620056152344</v>
+        <v>72.71759796142578</v>
       </c>
       <c r="G73" t="n">
-        <v>72.71759796142578</v>
+        <v>55.5806999206543</v>
       </c>
       <c r="H73" t="n">
         <v>48.84930038452148</v>
       </c>
       <c r="I73" t="n">
+        <v>20.49620056152344</v>
+      </c>
+      <c r="J73" t="n">
         <v>45.27750015258789</v>
       </c>
-      <c r="J73" t="n">
+      <c r="K73" t="n">
         <v>34.61230087280273</v>
       </c>
-      <c r="K73" t="n">
+      <c r="L73" t="n">
         <v>1.139700055122375</v>
       </c>
-      <c r="L73" t="n">
-        <v>55.5806999206543</v>
-      </c>
       <c r="M73" t="n">
-        <v>67.43818664550781</v>
+        <v>67.44199371337891</v>
       </c>
       <c r="N73" t="n">
-        <v>68.42768859863281</v>
+        <v>55.68498229980469</v>
       </c>
       <c r="O73" t="n">
         <v>58.73467254638672</v>
@@ -6723,10 +6723,10 @@
         <v>60.04983901977539</v>
       </c>
       <c r="U73" t="n">
-        <v>25.96242332458496</v>
+        <v>11.63544368743896</v>
       </c>
       <c r="V73" t="n">
-        <v>1.353011727333069</v>
+        <v>0.8460667133331299</v>
       </c>
       <c r="W73" t="n">
         <v>28.98326683044434</v>
@@ -6741,10 +6741,10 @@
         <v>302.1565856933594</v>
       </c>
       <c r="AA73" t="n">
-        <v>85.11135864257812</v>
+        <v>55.77665710449219</v>
       </c>
       <c r="AB73" t="n">
-        <v>0.1176506280899048</v>
+        <v>0.5588632822036743</v>
       </c>
     </row>
     <row r="74">
@@ -6764,31 +6764,31 @@
         <v>78.35199737548828</v>
       </c>
       <c r="F74" t="n">
-        <v>20.84169960021973</v>
+        <v>75.28639984130859</v>
       </c>
       <c r="G74" t="n">
-        <v>75.28639984130859</v>
+        <v>57.13790130615234</v>
       </c>
       <c r="H74" t="n">
         <v>53.39839935302734</v>
       </c>
       <c r="I74" t="n">
+        <v>20.84169960021973</v>
+      </c>
+      <c r="J74" t="n">
         <v>55.27040100097656</v>
       </c>
-      <c r="J74" t="n">
+      <c r="K74" t="n">
         <v>36.23880004882812</v>
       </c>
-      <c r="K74" t="n">
+      <c r="L74" t="n">
         <v>0.3648000061511993</v>
       </c>
-      <c r="L74" t="n">
-        <v>57.13790130615234</v>
-      </c>
       <c r="M74" t="n">
-        <v>94.90686798095703</v>
+        <v>94.91222381591797</v>
       </c>
       <c r="N74" t="n">
-        <v>95.12476348876953</v>
+        <v>86.94818115234375</v>
       </c>
       <c r="O74" t="n">
         <v>44.86057281494141</v>
@@ -6809,10 +6809,10 @@
         <v>57.72649383544922</v>
       </c>
       <c r="U74" t="n">
-        <v>27.11893463134766</v>
+        <v>8.755314826965332</v>
       </c>
       <c r="V74" t="n">
-        <v>1.407293081283569</v>
+        <v>0.8420922160148621</v>
       </c>
       <c r="W74" t="n">
         <v>35.95372009277344</v>
@@ -6827,10 +6827,10 @@
         <v>441.1307373046875</v>
       </c>
       <c r="AA74" t="n">
-        <v>118.1366424560547</v>
+        <v>92.32279205322266</v>
       </c>
       <c r="AB74" t="n">
-        <v>0.07424546778202057</v>
+        <v>0.2928372621536255</v>
       </c>
     </row>
     <row r="75">
@@ -6850,31 +6850,31 @@
         <v>75.14649963378906</v>
       </c>
       <c r="F75" t="n">
-        <v>20.45479965209961</v>
+        <v>75.97579956054688</v>
       </c>
       <c r="G75" t="n">
-        <v>75.97579956054688</v>
+        <v>55.25630187988281</v>
       </c>
       <c r="H75" t="n">
         <v>55.04069900512695</v>
       </c>
       <c r="I75" t="n">
+        <v>20.45479965209961</v>
+      </c>
+      <c r="J75" t="n">
         <v>62.1963005065918</v>
       </c>
-      <c r="J75" t="n">
+      <c r="K75" t="n">
         <v>31.76219940185547</v>
       </c>
-      <c r="K75" t="n">
+      <c r="L75" t="n">
         <v>0.7430999875068665</v>
       </c>
-      <c r="L75" t="n">
-        <v>55.25630187988281</v>
-      </c>
       <c r="M75" t="n">
-        <v>125.5632553100586</v>
+        <v>125.5703353881836</v>
       </c>
       <c r="N75" t="n">
-        <v>126.9077529907227</v>
+        <v>119.3583450317383</v>
       </c>
       <c r="O75" t="n">
         <v>52.49629211425781</v>
@@ -6895,10 +6895,10 @@
         <v>63.31607055664062</v>
       </c>
       <c r="U75" t="n">
-        <v>21.21115303039551</v>
+        <v>6.994936466217041</v>
       </c>
       <c r="V75" t="n">
-        <v>1.400871276855469</v>
+        <v>0.8282754421234131</v>
       </c>
       <c r="W75" t="n">
         <v>34.02797698974609</v>
@@ -6913,10 +6913,10 @@
         <v>416.72802734375</v>
       </c>
       <c r="AA75" t="n">
-        <v>157.6614837646484</v>
+        <v>122.2182846069336</v>
       </c>
       <c r="AB75" t="n">
-        <v>0.07137738168239594</v>
+        <v>0.05892501026391983</v>
       </c>
     </row>
     <row r="76">
@@ -6936,31 +6936,31 @@
         <v>74.55680084228516</v>
       </c>
       <c r="F76" t="n">
-        <v>21.30769920349121</v>
+        <v>75.86009979248047</v>
       </c>
       <c r="G76" t="n">
-        <v>75.86009979248047</v>
+        <v>55.03960037231445</v>
       </c>
       <c r="H76" t="n">
         <v>55.68510055541992</v>
       </c>
       <c r="I76" t="n">
+        <v>21.30769920349121</v>
+      </c>
+      <c r="J76" t="n">
         <v>65.69319915771484</v>
       </c>
-      <c r="J76" t="n">
+      <c r="K76" t="n">
         <v>31.36450004577637</v>
       </c>
-      <c r="K76" t="n">
+      <c r="L76" t="n">
         <v>1.127300024032593</v>
       </c>
-      <c r="L76" t="n">
-        <v>55.03960037231445</v>
-      </c>
       <c r="M76" t="n">
-        <v>145.8481750488281</v>
+        <v>145.8563995361328</v>
       </c>
       <c r="N76" t="n">
-        <v>146.4080200195312</v>
+        <v>129.4199981689453</v>
       </c>
       <c r="O76" t="n">
         <v>38.06142044067383</v>
@@ -6981,10 +6981,10 @@
         <v>60.59882354736328</v>
       </c>
       <c r="U76" t="n">
-        <v>8.689607620239258</v>
+        <v>8.273721694946289</v>
       </c>
       <c r="V76" t="n">
-        <v>1.279555678367615</v>
+        <v>0.81483393907547</v>
       </c>
       <c r="W76" t="n">
         <v>62.61806869506836</v>
@@ -6999,10 +6999,10 @@
         <v>254.7015686035156</v>
       </c>
       <c r="AA76" t="n">
-        <v>183.556884765625</v>
+        <v>127.8833847045898</v>
       </c>
       <c r="AB76" t="n">
-        <v>0.2976187765598297</v>
+        <v>0.06088815256953239</v>
       </c>
     </row>
     <row r="77">
@@ -7022,31 +7022,31 @@
         <v>73.02890014648438</v>
       </c>
       <c r="F77" t="n">
-        <v>21.28079986572266</v>
+        <v>74.98870086669922</v>
       </c>
       <c r="G77" t="n">
-        <v>74.98870086669922</v>
+        <v>56.16690063476562</v>
       </c>
       <c r="H77" t="n">
         <v>55.84799957275391</v>
       </c>
       <c r="I77" t="n">
+        <v>21.28079986572266</v>
+      </c>
+      <c r="J77" t="n">
         <v>65.30410003662109</v>
       </c>
-      <c r="J77" t="n">
+      <c r="K77" t="n">
         <v>28.91909980773926</v>
       </c>
-      <c r="K77" t="n">
+      <c r="L77" t="n">
         <v>1.471799969673157</v>
       </c>
-      <c r="L77" t="n">
-        <v>56.16690063476562</v>
-      </c>
       <c r="M77" t="n">
-        <v>131.2514038085938</v>
+        <v>131.2588195800781</v>
       </c>
       <c r="N77" t="n">
-        <v>128.9269104003906</v>
+        <v>135.6699676513672</v>
       </c>
       <c r="O77" t="n">
         <v>27.29254150390625</v>
@@ -7067,10 +7067,10 @@
         <v>49.98099517822266</v>
       </c>
       <c r="U77" t="n">
-        <v>-1.695631265640259</v>
+        <v>2.338920831680298</v>
       </c>
       <c r="V77" t="n">
-        <v>1.491671323776245</v>
+        <v>0.8765025734901428</v>
       </c>
       <c r="W77" t="n">
         <v>40.7697868347168</v>
@@ -7085,10 +7085,10 @@
         <v>179.0146484375</v>
       </c>
       <c r="AA77" t="n">
-        <v>161.3284759521484</v>
+        <v>126.0516204833984</v>
       </c>
       <c r="AB77" t="n">
-        <v>0.1623425483703613</v>
+        <v>0.08097247034311295</v>
       </c>
     </row>
     <row r="78">
@@ -7108,31 +7108,31 @@
         <v>60.52379989624023</v>
       </c>
       <c r="F78" t="n">
-        <v>15.85359954833984</v>
+        <v>70.10739898681641</v>
       </c>
       <c r="G78" t="n">
-        <v>70.10739898681641</v>
+        <v>42.61040115356445</v>
       </c>
       <c r="H78" t="n">
         <v>51.69440078735352</v>
       </c>
       <c r="I78" t="n">
+        <v>15.85359954833984</v>
+      </c>
+      <c r="J78" t="n">
         <v>61.29460144042969</v>
       </c>
-      <c r="J78" t="n">
+      <c r="K78" t="n">
         <v>33.06159973144531</v>
       </c>
-      <c r="K78" t="n">
+      <c r="L78" t="n">
         <v>0.3720999956130981</v>
       </c>
-      <c r="L78" t="n">
-        <v>42.61040115356445</v>
-      </c>
       <c r="M78" t="n">
-        <v>134.7930450439453</v>
+        <v>134.8006439208984</v>
       </c>
       <c r="N78" t="n">
-        <v>135.1380004882812</v>
+        <v>115.8449096679688</v>
       </c>
       <c r="O78" t="n">
         <v>40.10477066040039</v>
@@ -7153,10 +7153,10 @@
         <v>43.19131469726562</v>
       </c>
       <c r="U78" t="n">
-        <v>7.710622310638428</v>
+        <v>0.7222748994827271</v>
       </c>
       <c r="V78" t="n">
-        <v>1.756245851516724</v>
+        <v>1.070017337799072</v>
       </c>
       <c r="W78" t="n">
         <v>45.13397216796875</v>
@@ -7171,95 +7171,9 @@
         <v>94.73388671875</v>
       </c>
       <c r="AA78" t="n">
-        <v>159.8447875976562</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>0.1365697085857391</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>46742999040</v>
-      </c>
-      <c r="C79" t="n">
-        <v>165217992704</v>
-      </c>
-      <c r="D79" t="n">
-        <v>77035003904</v>
-      </c>
-      <c r="E79" t="n">
-        <v>72.42369842529297</v>
-      </c>
-      <c r="F79" t="n">
-        <v>19.86660003662109</v>
-      </c>
-      <c r="G79" t="n">
-        <v>69.84709930419922</v>
-      </c>
-      <c r="H79" t="n">
-        <v>52.41379928588867</v>
-      </c>
-      <c r="I79" t="n">
-        <v>61.52980041503906</v>
-      </c>
-      <c r="J79" t="n">
-        <v>28.85390090942383</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.7196999788284302</v>
-      </c>
-      <c r="L79" t="n">
-        <v>56.52610015869141</v>
-      </c>
-      <c r="M79" t="n">
-        <v>181.5897521972656</v>
-      </c>
-      <c r="N79" t="n">
-        <v>181.6747436523438</v>
-      </c>
-      <c r="O79" t="n">
-        <v>38.06110763549805</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0.7373242378234863</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>51.71060180664062</v>
-      </c>
-      <c r="R79" t="n">
-        <v>47.31008529663086</v>
-      </c>
-      <c r="S79" t="n">
-        <v>26.73725318908691</v>
-      </c>
-      <c r="T79" t="n">
-        <v>57.51982879638672</v>
-      </c>
-      <c r="U79" t="n">
-        <v>31.5242919921875</v>
-      </c>
-      <c r="V79" t="n">
-        <v>1.547625660896301</v>
-      </c>
-      <c r="W79" t="n">
-        <v>60.54994583129883</v>
-      </c>
-      <c r="X79" t="n">
-        <v>4.896539688110352</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>10.05747318267822</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>111.1107635498047</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>204.9006195068359</v>
-      </c>
-      <c r="AB79" t="inlineStr"/>
+        <v>114.3365783691406</v>
+      </c>
+      <c r="AB78" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
